--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="48">
   <si>
     <t>continent</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS449"/>
+  <dimension ref="A1:AS450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61760,10 +61760,10 @@
         <v>0.262</v>
       </c>
       <c r="I448">
-        <v>44475</v>
+        <v>48075</v>
       </c>
       <c r="J448">
-        <v>0.163</v>
+        <v>0.176</v>
       </c>
       <c r="K448">
         <v>24431758</v>
@@ -61891,16 +61891,16 @@
         <v>45</v>
       </c>
       <c r="G449">
-        <v>39.011</v>
+        <v>39.36</v>
       </c>
       <c r="H449">
         <v>0.262</v>
       </c>
       <c r="I449">
-        <v>44475</v>
+        <v>50944</v>
       </c>
       <c r="J449">
-        <v>0.163</v>
+        <v>0.186</v>
       </c>
       <c r="K449">
         <v>24790758</v>
@@ -62006,6 +62006,143 @@
       </c>
       <c r="AS449">
         <v>0.0735632183908046</v>
+      </c>
+    </row>
+    <row r="450" spans="1:45">
+      <c r="A450" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B450" t="s">
+        <v>46</v>
+      </c>
+      <c r="C450" t="s">
+        <v>47</v>
+      </c>
+      <c r="D450" s="2">
+        <v>44340</v>
+      </c>
+      <c r="E450">
+        <v>54406</v>
+      </c>
+      <c r="F450" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450">
+        <v>39.559</v>
+      </c>
+      <c r="H450">
+        <v>0.199</v>
+      </c>
+      <c r="I450">
+        <v>53433</v>
+      </c>
+      <c r="J450">
+        <v>0.195</v>
+      </c>
+      <c r="K450">
+        <v>24826221</v>
+      </c>
+      <c r="L450">
+        <v>14919592</v>
+      </c>
+      <c r="M450">
+        <v>9906629</v>
+      </c>
+      <c r="N450">
+        <v>35463</v>
+      </c>
+      <c r="O450">
+        <v>272022</v>
+      </c>
+      <c r="P450">
+        <v>9.08</v>
+      </c>
+      <c r="Q450">
+        <v>5.45</v>
+      </c>
+      <c r="R450">
+        <v>3.62</v>
+      </c>
+      <c r="S450">
+        <v>995</v>
+      </c>
+      <c r="T450">
+        <v>68.98</v>
+      </c>
+      <c r="U450">
+        <v>273523621</v>
+      </c>
+      <c r="V450">
+        <v>145.725</v>
+      </c>
+      <c r="W450">
+        <v>29.3</v>
+      </c>
+      <c r="X450">
+        <v>5.319</v>
+      </c>
+      <c r="Y450">
+        <v>3.053</v>
+      </c>
+      <c r="Z450">
+        <v>11188.744</v>
+      </c>
+      <c r="AA450">
+        <v>5.7</v>
+      </c>
+      <c r="AB450">
+        <v>342.864</v>
+      </c>
+      <c r="AC450">
+        <v>6.32</v>
+      </c>
+      <c r="AD450">
+        <v>2.8</v>
+      </c>
+      <c r="AE450">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF450">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG450">
+        <v>1.04</v>
+      </c>
+      <c r="AH450">
+        <v>71.72</v>
+      </c>
+      <c r="AI450">
+        <v>0.718</v>
+      </c>
+      <c r="AJ450">
+        <v>5907</v>
+      </c>
+      <c r="AK450">
+        <v>127</v>
+      </c>
+      <c r="AL450">
+        <v>5234</v>
+      </c>
+      <c r="AM450">
+        <v>546</v>
+      </c>
+      <c r="AN450">
+        <v>1781127</v>
+      </c>
+      <c r="AO450">
+        <v>49455</v>
+      </c>
+      <c r="AP450">
+        <v>1638279</v>
+      </c>
+      <c r="AQ450">
+        <v>93393</v>
+      </c>
+      <c r="AR450">
+        <v>0.02149991535466396</v>
+      </c>
+      <c r="AS450">
+        <v>0.1085725839061868</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="48">
   <si>
     <t>continent</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS450"/>
+  <dimension ref="A1:AS452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -929,6 +929,12 @@
       <c r="AQ3">
         <v>2</v>
       </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="1" t="s">
@@ -1060,6 +1066,12 @@
       <c r="AQ4">
         <v>2</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="1" t="s">
@@ -1191,6 +1203,12 @@
       <c r="AQ5">
         <v>2</v>
       </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="1" t="s">
@@ -1459,6 +1477,12 @@
       <c r="AQ7">
         <v>4</v>
       </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="1" t="s">
@@ -2138,6 +2162,12 @@
       <c r="AQ12">
         <v>31</v>
       </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="1" t="s">
@@ -62143,6 +62173,280 @@
       </c>
       <c r="AS450">
         <v>0.1085725839061868</v>
+      </c>
+    </row>
+    <row r="451" spans="1:45">
+      <c r="A451" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B451" t="s">
+        <v>46</v>
+      </c>
+      <c r="C451" t="s">
+        <v>47</v>
+      </c>
+      <c r="D451" s="2">
+        <v>44341</v>
+      </c>
+      <c r="E451">
+        <v>61861</v>
+      </c>
+      <c r="F451" t="s">
+        <v>45</v>
+      </c>
+      <c r="G451">
+        <v>39.785</v>
+      </c>
+      <c r="H451">
+        <v>0.226</v>
+      </c>
+      <c r="I451">
+        <v>56055</v>
+      </c>
+      <c r="J451">
+        <v>0.205</v>
+      </c>
+      <c r="K451">
+        <v>25782177</v>
+      </c>
+      <c r="L451">
+        <v>15546158</v>
+      </c>
+      <c r="M451">
+        <v>10236019</v>
+      </c>
+      <c r="N451">
+        <v>955956</v>
+      </c>
+      <c r="O451">
+        <v>360005</v>
+      </c>
+      <c r="P451">
+        <v>9.43</v>
+      </c>
+      <c r="Q451">
+        <v>5.68</v>
+      </c>
+      <c r="R451">
+        <v>3.74</v>
+      </c>
+      <c r="S451">
+        <v>1316</v>
+      </c>
+      <c r="T451">
+        <v>68.98</v>
+      </c>
+      <c r="U451">
+        <v>273523621</v>
+      </c>
+      <c r="V451">
+        <v>145.725</v>
+      </c>
+      <c r="W451">
+        <v>29.3</v>
+      </c>
+      <c r="X451">
+        <v>5.319</v>
+      </c>
+      <c r="Y451">
+        <v>3.053</v>
+      </c>
+      <c r="Z451">
+        <v>11188.744</v>
+      </c>
+      <c r="AA451">
+        <v>5.7</v>
+      </c>
+      <c r="AB451">
+        <v>342.864</v>
+      </c>
+      <c r="AC451">
+        <v>6.32</v>
+      </c>
+      <c r="AD451">
+        <v>2.8</v>
+      </c>
+      <c r="AE451">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF451">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG451">
+        <v>1.04</v>
+      </c>
+      <c r="AH451">
+        <v>71.72</v>
+      </c>
+      <c r="AI451">
+        <v>0.718</v>
+      </c>
+      <c r="AJ451">
+        <v>5060</v>
+      </c>
+      <c r="AK451">
+        <v>172</v>
+      </c>
+      <c r="AL451">
+        <v>3795</v>
+      </c>
+      <c r="AM451">
+        <v>1093</v>
+      </c>
+      <c r="AN451">
+        <v>1786187</v>
+      </c>
+      <c r="AO451">
+        <v>49627</v>
+      </c>
+      <c r="AP451">
+        <v>1642074</v>
+      </c>
+      <c r="AQ451">
+        <v>94486</v>
+      </c>
+      <c r="AR451">
+        <v>0.03399209486166008</v>
+      </c>
+      <c r="AS451">
+        <v>0.08179628522009021</v>
+      </c>
+    </row>
+    <row r="452" spans="1:45">
+      <c r="A452" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B452" t="s">
+        <v>46</v>
+      </c>
+      <c r="C452" t="s">
+        <v>47</v>
+      </c>
+      <c r="D452" s="2">
+        <v>44342</v>
+      </c>
+      <c r="E452">
+        <v>61861</v>
+      </c>
+      <c r="F452" t="s">
+        <v>45</v>
+      </c>
+      <c r="G452">
+        <v>39.785</v>
+      </c>
+      <c r="H452">
+        <v>0.226</v>
+      </c>
+      <c r="I452">
+        <v>56055</v>
+      </c>
+      <c r="J452">
+        <v>0.205</v>
+      </c>
+      <c r="K452">
+        <v>25782177</v>
+      </c>
+      <c r="L452">
+        <v>15546158</v>
+      </c>
+      <c r="M452">
+        <v>10236019</v>
+      </c>
+      <c r="N452">
+        <v>955956</v>
+      </c>
+      <c r="O452">
+        <v>360005</v>
+      </c>
+      <c r="P452">
+        <v>9.43</v>
+      </c>
+      <c r="Q452">
+        <v>5.68</v>
+      </c>
+      <c r="R452">
+        <v>3.74</v>
+      </c>
+      <c r="S452">
+        <v>1316</v>
+      </c>
+      <c r="T452">
+        <v>68.98</v>
+      </c>
+      <c r="U452">
+        <v>273523621</v>
+      </c>
+      <c r="V452">
+        <v>145.725</v>
+      </c>
+      <c r="W452">
+        <v>29.3</v>
+      </c>
+      <c r="X452">
+        <v>5.319</v>
+      </c>
+      <c r="Y452">
+        <v>3.053</v>
+      </c>
+      <c r="Z452">
+        <v>11188.744</v>
+      </c>
+      <c r="AA452">
+        <v>5.7</v>
+      </c>
+      <c r="AB452">
+        <v>342.864</v>
+      </c>
+      <c r="AC452">
+        <v>6.32</v>
+      </c>
+      <c r="AD452">
+        <v>2.8</v>
+      </c>
+      <c r="AE452">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF452">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG452">
+        <v>1.04</v>
+      </c>
+      <c r="AH452">
+        <v>71.72</v>
+      </c>
+      <c r="AI452">
+        <v>0.718</v>
+      </c>
+      <c r="AJ452">
+        <v>5034</v>
+      </c>
+      <c r="AK452">
+        <v>144</v>
+      </c>
+      <c r="AL452">
+        <v>3189</v>
+      </c>
+      <c r="AM452">
+        <v>1701</v>
+      </c>
+      <c r="AN452">
+        <v>1791221</v>
+      </c>
+      <c r="AO452">
+        <v>49771</v>
+      </c>
+      <c r="AP452">
+        <v>1645263</v>
+      </c>
+      <c r="AQ452">
+        <v>96187</v>
+      </c>
+      <c r="AR452">
+        <v>0.02860548271752086</v>
+      </c>
+      <c r="AS452">
+        <v>0.08137598810235851</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="48">
   <si>
     <t>continent</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS452"/>
+  <dimension ref="A1:AS456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62326,22 +62326,22 @@
         <v>44342</v>
       </c>
       <c r="E452">
-        <v>61861</v>
+        <v>56318</v>
       </c>
       <c r="F452" t="s">
         <v>45</v>
       </c>
       <c r="G452">
-        <v>39.785</v>
+        <v>39.991</v>
       </c>
       <c r="H452">
-        <v>0.226</v>
+        <v>0.206</v>
       </c>
       <c r="I452">
-        <v>56055</v>
+        <v>56506</v>
       </c>
       <c r="J452">
-        <v>0.205</v>
+        <v>0.207</v>
       </c>
       <c r="K452">
         <v>25782177</v>
@@ -62356,7 +62356,7 @@
         <v>955956</v>
       </c>
       <c r="O452">
-        <v>360005</v>
+        <v>336543</v>
       </c>
       <c r="P452">
         <v>9.43</v>
@@ -62368,7 +62368,7 @@
         <v>3.74</v>
       </c>
       <c r="S452">
-        <v>1316</v>
+        <v>1230</v>
       </c>
       <c r="T452">
         <v>68.98</v>
@@ -62446,7 +62446,555 @@
         <v>0.02860548271752086</v>
       </c>
       <c r="AS452">
-        <v>0.08137598810235851</v>
+        <v>0.08938527646578359</v>
+      </c>
+    </row>
+    <row r="453" spans="1:45">
+      <c r="A453" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B453" t="s">
+        <v>46</v>
+      </c>
+      <c r="C453" t="s">
+        <v>47</v>
+      </c>
+      <c r="D453" s="2">
+        <v>44343</v>
+      </c>
+      <c r="E453">
+        <v>62386</v>
+      </c>
+      <c r="F453" t="s">
+        <v>45</v>
+      </c>
+      <c r="G453">
+        <v>40.219</v>
+      </c>
+      <c r="H453">
+        <v>0.228</v>
+      </c>
+      <c r="I453">
+        <v>57456</v>
+      </c>
+      <c r="J453">
+        <v>0.21</v>
+      </c>
+      <c r="K453">
+        <v>25782177</v>
+      </c>
+      <c r="L453">
+        <v>15546158</v>
+      </c>
+      <c r="M453">
+        <v>10236019</v>
+      </c>
+      <c r="N453">
+        <v>955956</v>
+      </c>
+      <c r="O453">
+        <v>313080</v>
+      </c>
+      <c r="P453">
+        <v>9.43</v>
+      </c>
+      <c r="Q453">
+        <v>5.68</v>
+      </c>
+      <c r="R453">
+        <v>3.74</v>
+      </c>
+      <c r="S453">
+        <v>1145</v>
+      </c>
+      <c r="T453">
+        <v>68.98</v>
+      </c>
+      <c r="U453">
+        <v>273523621</v>
+      </c>
+      <c r="V453">
+        <v>145.725</v>
+      </c>
+      <c r="W453">
+        <v>29.3</v>
+      </c>
+      <c r="X453">
+        <v>5.319</v>
+      </c>
+      <c r="Y453">
+        <v>3.053</v>
+      </c>
+      <c r="Z453">
+        <v>11188.744</v>
+      </c>
+      <c r="AA453">
+        <v>5.7</v>
+      </c>
+      <c r="AB453">
+        <v>342.864</v>
+      </c>
+      <c r="AC453">
+        <v>6.32</v>
+      </c>
+      <c r="AD453">
+        <v>2.8</v>
+      </c>
+      <c r="AE453">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF453">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG453">
+        <v>1.04</v>
+      </c>
+      <c r="AH453">
+        <v>71.72</v>
+      </c>
+      <c r="AI453">
+        <v>0.718</v>
+      </c>
+      <c r="AJ453">
+        <v>6278</v>
+      </c>
+      <c r="AK453">
+        <v>136</v>
+      </c>
+      <c r="AL453">
+        <v>3924</v>
+      </c>
+      <c r="AM453">
+        <v>2218</v>
+      </c>
+      <c r="AN453">
+        <v>1797499</v>
+      </c>
+      <c r="AO453">
+        <v>49907</v>
+      </c>
+      <c r="AP453">
+        <v>1649187</v>
+      </c>
+      <c r="AQ453">
+        <v>98405</v>
+      </c>
+      <c r="AR453">
+        <v>0.02166294998407136</v>
+      </c>
+      <c r="AS453">
+        <v>0.1006315519507582</v>
+      </c>
+    </row>
+    <row r="454" spans="1:45">
+      <c r="A454" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B454" t="s">
+        <v>46</v>
+      </c>
+      <c r="C454" t="s">
+        <v>47</v>
+      </c>
+      <c r="D454" s="2">
+        <v>44344</v>
+      </c>
+      <c r="E454">
+        <v>62386</v>
+      </c>
+      <c r="F454" t="s">
+        <v>45</v>
+      </c>
+      <c r="G454">
+        <v>40.219</v>
+      </c>
+      <c r="H454">
+        <v>0.228</v>
+      </c>
+      <c r="I454">
+        <v>57456</v>
+      </c>
+      <c r="J454">
+        <v>0.21</v>
+      </c>
+      <c r="K454">
+        <v>25782177</v>
+      </c>
+      <c r="L454">
+        <v>15546158</v>
+      </c>
+      <c r="M454">
+        <v>10236019</v>
+      </c>
+      <c r="N454">
+        <v>955956</v>
+      </c>
+      <c r="O454">
+        <v>287804</v>
+      </c>
+      <c r="P454">
+        <v>9.43</v>
+      </c>
+      <c r="Q454">
+        <v>5.68</v>
+      </c>
+      <c r="R454">
+        <v>3.74</v>
+      </c>
+      <c r="S454">
+        <v>1052</v>
+      </c>
+      <c r="T454">
+        <v>68.98</v>
+      </c>
+      <c r="U454">
+        <v>273523621</v>
+      </c>
+      <c r="V454">
+        <v>145.725</v>
+      </c>
+      <c r="W454">
+        <v>29.3</v>
+      </c>
+      <c r="X454">
+        <v>5.319</v>
+      </c>
+      <c r="Y454">
+        <v>3.053</v>
+      </c>
+      <c r="Z454">
+        <v>11188.744</v>
+      </c>
+      <c r="AA454">
+        <v>5.7</v>
+      </c>
+      <c r="AB454">
+        <v>342.864</v>
+      </c>
+      <c r="AC454">
+        <v>6.32</v>
+      </c>
+      <c r="AD454">
+        <v>2.8</v>
+      </c>
+      <c r="AE454">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF454">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG454">
+        <v>1.04</v>
+      </c>
+      <c r="AH454">
+        <v>71.72</v>
+      </c>
+      <c r="AI454">
+        <v>0.718</v>
+      </c>
+      <c r="AJ454">
+        <v>5862</v>
+      </c>
+      <c r="AK454">
+        <v>193</v>
+      </c>
+      <c r="AL454">
+        <v>5370</v>
+      </c>
+      <c r="AM454">
+        <v>299</v>
+      </c>
+      <c r="AN454">
+        <v>1803361</v>
+      </c>
+      <c r="AO454">
+        <v>50100</v>
+      </c>
+      <c r="AP454">
+        <v>1654557</v>
+      </c>
+      <c r="AQ454">
+        <v>98704</v>
+      </c>
+      <c r="AR454">
+        <v>0.03292391675196179</v>
+      </c>
+      <c r="AS454">
+        <v>0.09396338922194082</v>
+      </c>
+    </row>
+    <row r="455" spans="1:45">
+      <c r="A455" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B455" t="s">
+        <v>46</v>
+      </c>
+      <c r="C455" t="s">
+        <v>47</v>
+      </c>
+      <c r="D455" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E455">
+        <v>62386</v>
+      </c>
+      <c r="F455" t="s">
+        <v>45</v>
+      </c>
+      <c r="G455">
+        <v>40.219</v>
+      </c>
+      <c r="H455">
+        <v>0.228</v>
+      </c>
+      <c r="I455">
+        <v>57456</v>
+      </c>
+      <c r="J455">
+        <v>0.21</v>
+      </c>
+      <c r="K455">
+        <v>25782177</v>
+      </c>
+      <c r="L455">
+        <v>15546158</v>
+      </c>
+      <c r="M455">
+        <v>10236019</v>
+      </c>
+      <c r="N455">
+        <v>955956</v>
+      </c>
+      <c r="O455">
+        <v>293790</v>
+      </c>
+      <c r="P455">
+        <v>9.43</v>
+      </c>
+      <c r="Q455">
+        <v>5.68</v>
+      </c>
+      <c r="R455">
+        <v>3.74</v>
+      </c>
+      <c r="S455">
+        <v>1074</v>
+      </c>
+      <c r="T455">
+        <v>68.98</v>
+      </c>
+      <c r="U455">
+        <v>273523621</v>
+      </c>
+      <c r="V455">
+        <v>145.725</v>
+      </c>
+      <c r="W455">
+        <v>29.3</v>
+      </c>
+      <c r="X455">
+        <v>5.319</v>
+      </c>
+      <c r="Y455">
+        <v>3.053</v>
+      </c>
+      <c r="Z455">
+        <v>11188.744</v>
+      </c>
+      <c r="AA455">
+        <v>5.7</v>
+      </c>
+      <c r="AB455">
+        <v>342.864</v>
+      </c>
+      <c r="AC455">
+        <v>6.32</v>
+      </c>
+      <c r="AD455">
+        <v>2.8</v>
+      </c>
+      <c r="AE455">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF455">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG455">
+        <v>1.04</v>
+      </c>
+      <c r="AH455">
+        <v>71.72</v>
+      </c>
+      <c r="AI455">
+        <v>0.718</v>
+      </c>
+      <c r="AJ455">
+        <v>6565</v>
+      </c>
+      <c r="AK455">
+        <v>162</v>
+      </c>
+      <c r="AL455">
+        <v>5417</v>
+      </c>
+      <c r="AM455">
+        <v>986</v>
+      </c>
+      <c r="AN455">
+        <v>1809926</v>
+      </c>
+      <c r="AO455">
+        <v>50262</v>
+      </c>
+      <c r="AP455">
+        <v>1659974</v>
+      </c>
+      <c r="AQ455">
+        <v>99690</v>
+      </c>
+      <c r="AR455">
+        <v>0.02467631378522468</v>
+      </c>
+      <c r="AS455">
+        <v>0.105231943064149</v>
+      </c>
+    </row>
+    <row r="456" spans="1:45">
+      <c r="A456" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B456" t="s">
+        <v>46</v>
+      </c>
+      <c r="C456" t="s">
+        <v>47</v>
+      </c>
+      <c r="D456" s="2">
+        <v>44346</v>
+      </c>
+      <c r="E456">
+        <v>62386</v>
+      </c>
+      <c r="F456" t="s">
+        <v>45</v>
+      </c>
+      <c r="G456">
+        <v>40.219</v>
+      </c>
+      <c r="H456">
+        <v>0.228</v>
+      </c>
+      <c r="I456">
+        <v>57456</v>
+      </c>
+      <c r="J456">
+        <v>0.21</v>
+      </c>
+      <c r="K456">
+        <v>26889189</v>
+      </c>
+      <c r="L456">
+        <v>16304700</v>
+      </c>
+      <c r="M456">
+        <v>10584489</v>
+      </c>
+      <c r="N456">
+        <v>955956</v>
+      </c>
+      <c r="O456">
+        <v>299776</v>
+      </c>
+      <c r="P456">
+        <v>9.83</v>
+      </c>
+      <c r="Q456">
+        <v>5.96</v>
+      </c>
+      <c r="R456">
+        <v>3.87</v>
+      </c>
+      <c r="S456">
+        <v>1096</v>
+      </c>
+      <c r="T456">
+        <v>68.98</v>
+      </c>
+      <c r="U456">
+        <v>273523621</v>
+      </c>
+      <c r="V456">
+        <v>145.725</v>
+      </c>
+      <c r="W456">
+        <v>29.3</v>
+      </c>
+      <c r="X456">
+        <v>5.319</v>
+      </c>
+      <c r="Y456">
+        <v>3.053</v>
+      </c>
+      <c r="Z456">
+        <v>11188.744</v>
+      </c>
+      <c r="AA456">
+        <v>5.7</v>
+      </c>
+      <c r="AB456">
+        <v>342.864</v>
+      </c>
+      <c r="AC456">
+        <v>6.32</v>
+      </c>
+      <c r="AD456">
+        <v>2.8</v>
+      </c>
+      <c r="AE456">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF456">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG456">
+        <v>1.04</v>
+      </c>
+      <c r="AH456">
+        <v>71.72</v>
+      </c>
+      <c r="AI456">
+        <v>0.718</v>
+      </c>
+      <c r="AJ456">
+        <v>6115</v>
+      </c>
+      <c r="AK456">
+        <v>142</v>
+      </c>
+      <c r="AL456">
+        <v>4024</v>
+      </c>
+      <c r="AM456">
+        <v>1949</v>
+      </c>
+      <c r="AN456">
+        <v>1816041</v>
+      </c>
+      <c r="AO456">
+        <v>50404</v>
+      </c>
+      <c r="AP456">
+        <v>1663998</v>
+      </c>
+      <c r="AQ456">
+        <v>101639</v>
+      </c>
+      <c r="AR456">
+        <v>0.023221586263287</v>
+      </c>
+      <c r="AS456">
+        <v>0.09801878626614946</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="48">
   <si>
     <t>continent</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS456"/>
+  <dimension ref="A1:AS457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62997,6 +62997,143 @@
         <v>0.09801878626614946</v>
       </c>
     </row>
+    <row r="457" spans="1:45">
+      <c r="A457" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B457" t="s">
+        <v>46</v>
+      </c>
+      <c r="C457" t="s">
+        <v>47</v>
+      </c>
+      <c r="D457" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E457">
+        <v>62386</v>
+      </c>
+      <c r="F457" t="s">
+        <v>45</v>
+      </c>
+      <c r="G457">
+        <v>40.219</v>
+      </c>
+      <c r="H457">
+        <v>0.228</v>
+      </c>
+      <c r="I457">
+        <v>57456</v>
+      </c>
+      <c r="J457">
+        <v>0.21</v>
+      </c>
+      <c r="K457">
+        <v>26889189</v>
+      </c>
+      <c r="L457">
+        <v>16304700</v>
+      </c>
+      <c r="M457">
+        <v>10584489</v>
+      </c>
+      <c r="N457">
+        <v>955956</v>
+      </c>
+      <c r="O457">
+        <v>299776</v>
+      </c>
+      <c r="P457">
+        <v>9.83</v>
+      </c>
+      <c r="Q457">
+        <v>5.96</v>
+      </c>
+      <c r="R457">
+        <v>3.87</v>
+      </c>
+      <c r="S457">
+        <v>1096</v>
+      </c>
+      <c r="T457">
+        <v>68.98</v>
+      </c>
+      <c r="U457">
+        <v>273523621</v>
+      </c>
+      <c r="V457">
+        <v>145.725</v>
+      </c>
+      <c r="W457">
+        <v>29.3</v>
+      </c>
+      <c r="X457">
+        <v>5.319</v>
+      </c>
+      <c r="Y457">
+        <v>3.053</v>
+      </c>
+      <c r="Z457">
+        <v>11188.744</v>
+      </c>
+      <c r="AA457">
+        <v>5.7</v>
+      </c>
+      <c r="AB457">
+        <v>342.864</v>
+      </c>
+      <c r="AC457">
+        <v>6.32</v>
+      </c>
+      <c r="AD457">
+        <v>2.8</v>
+      </c>
+      <c r="AE457">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF457">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG457">
+        <v>1.04</v>
+      </c>
+      <c r="AH457">
+        <v>71.72</v>
+      </c>
+      <c r="AI457">
+        <v>0.718</v>
+      </c>
+      <c r="AJ457">
+        <v>5662</v>
+      </c>
+      <c r="AK457">
+        <v>174</v>
+      </c>
+      <c r="AL457">
+        <v>5121</v>
+      </c>
+      <c r="AM457">
+        <v>367</v>
+      </c>
+      <c r="AN457">
+        <v>1821703</v>
+      </c>
+      <c r="AO457">
+        <v>50578</v>
+      </c>
+      <c r="AP457">
+        <v>1669119</v>
+      </c>
+      <c r="AQ457">
+        <v>102006</v>
+      </c>
+      <c r="AR457">
+        <v>0.0307311903920876</v>
+      </c>
+      <c r="AS457">
+        <v>0.09075754175616324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="48">
   <si>
     <t>continent</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS457"/>
+  <dimension ref="A1:AS458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62600,22 +62600,22 @@
         <v>44344</v>
       </c>
       <c r="E454">
-        <v>62386</v>
+        <v>73092</v>
       </c>
       <c r="F454" t="s">
         <v>45</v>
       </c>
       <c r="G454">
-        <v>40.219</v>
+        <v>40.486</v>
       </c>
       <c r="H454">
-        <v>0.228</v>
+        <v>0.267</v>
       </c>
       <c r="I454">
-        <v>57456</v>
+        <v>57644</v>
       </c>
       <c r="J454">
-        <v>0.21</v>
+        <v>0.211</v>
       </c>
       <c r="K454">
         <v>25782177</v>
@@ -62720,7 +62720,7 @@
         <v>0.03292391675196179</v>
       </c>
       <c r="AS454">
-        <v>0.09396338922194082</v>
+        <v>0.08020029551797735</v>
       </c>
     </row>
     <row r="455" spans="1:45">
@@ -62737,22 +62737,22 @@
         <v>44345</v>
       </c>
       <c r="E455">
-        <v>62386</v>
+        <v>71834</v>
       </c>
       <c r="F455" t="s">
         <v>45</v>
       </c>
       <c r="G455">
-        <v>40.219</v>
+        <v>40.749</v>
       </c>
       <c r="H455">
-        <v>0.228</v>
+        <v>0.263</v>
       </c>
       <c r="I455">
-        <v>57456</v>
+        <v>61088</v>
       </c>
       <c r="J455">
-        <v>0.21</v>
+        <v>0.223</v>
       </c>
       <c r="K455">
         <v>25782177</v>
@@ -62857,7 +62857,7 @@
         <v>0.02467631378522468</v>
       </c>
       <c r="AS455">
-        <v>0.105231943064149</v>
+        <v>0.09139126319013281</v>
       </c>
     </row>
     <row r="456" spans="1:45">
@@ -62874,22 +62874,22 @@
         <v>44346</v>
       </c>
       <c r="E456">
-        <v>62386</v>
+        <v>52132</v>
       </c>
       <c r="F456" t="s">
         <v>45</v>
       </c>
       <c r="G456">
-        <v>40.219</v>
+        <v>40.939</v>
       </c>
       <c r="H456">
-        <v>0.228</v>
+        <v>0.191</v>
       </c>
       <c r="I456">
-        <v>57456</v>
+        <v>61718</v>
       </c>
       <c r="J456">
-        <v>0.21</v>
+        <v>0.226</v>
       </c>
       <c r="K456">
         <v>26889189</v>
@@ -62994,7 +62994,7 @@
         <v>0.023221586263287</v>
       </c>
       <c r="AS456">
-        <v>0.09801878626614946</v>
+        <v>0.117298396378424</v>
       </c>
     </row>
     <row r="457" spans="1:45">
@@ -63011,49 +63011,49 @@
         <v>44347</v>
       </c>
       <c r="E457">
-        <v>62386</v>
+        <v>53491</v>
       </c>
       <c r="F457" t="s">
         <v>45</v>
       </c>
       <c r="G457">
-        <v>40.219</v>
+        <v>41.135</v>
       </c>
       <c r="H457">
-        <v>0.228</v>
+        <v>0.196</v>
       </c>
       <c r="I457">
-        <v>57456</v>
+        <v>61588</v>
       </c>
       <c r="J457">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="K457">
-        <v>26889189</v>
+        <v>27045507</v>
       </c>
       <c r="L457">
-        <v>16304700</v>
+        <v>16413672</v>
       </c>
       <c r="M457">
-        <v>10584489</v>
+        <v>10631835</v>
       </c>
       <c r="N457">
-        <v>955956</v>
+        <v>156318</v>
       </c>
       <c r="O457">
-        <v>299776</v>
+        <v>317041</v>
       </c>
       <c r="P457">
-        <v>9.83</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="Q457">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="R457">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="S457">
-        <v>1096</v>
+        <v>1159</v>
       </c>
       <c r="T457">
         <v>68.98</v>
@@ -63131,7 +63131,144 @@
         <v>0.0307311903920876</v>
       </c>
       <c r="AS457">
-        <v>0.09075754175616324</v>
+        <v>0.1058495821727019</v>
+      </c>
+    </row>
+    <row r="458" spans="1:45">
+      <c r="A458" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B458" t="s">
+        <v>46</v>
+      </c>
+      <c r="C458" t="s">
+        <v>47</v>
+      </c>
+      <c r="D458" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E458">
+        <v>53491</v>
+      </c>
+      <c r="F458" t="s">
+        <v>45</v>
+      </c>
+      <c r="G458">
+        <v>41.135</v>
+      </c>
+      <c r="H458">
+        <v>0.196</v>
+      </c>
+      <c r="I458">
+        <v>61588</v>
+      </c>
+      <c r="J458">
+        <v>0.225</v>
+      </c>
+      <c r="K458">
+        <v>27308881</v>
+      </c>
+      <c r="L458">
+        <v>16594581</v>
+      </c>
+      <c r="M458">
+        <v>10714300</v>
+      </c>
+      <c r="N458">
+        <v>263374</v>
+      </c>
+      <c r="O458">
+        <v>218101</v>
+      </c>
+      <c r="P458">
+        <v>9.98</v>
+      </c>
+      <c r="Q458">
+        <v>6.07</v>
+      </c>
+      <c r="R458">
+        <v>3.92</v>
+      </c>
+      <c r="S458">
+        <v>797</v>
+      </c>
+      <c r="T458">
+        <v>68.98</v>
+      </c>
+      <c r="U458">
+        <v>273523621</v>
+      </c>
+      <c r="V458">
+        <v>145.725</v>
+      </c>
+      <c r="W458">
+        <v>29.3</v>
+      </c>
+      <c r="X458">
+        <v>5.319</v>
+      </c>
+      <c r="Y458">
+        <v>3.053</v>
+      </c>
+      <c r="Z458">
+        <v>11188.744</v>
+      </c>
+      <c r="AA458">
+        <v>5.7</v>
+      </c>
+      <c r="AB458">
+        <v>342.864</v>
+      </c>
+      <c r="AC458">
+        <v>6.32</v>
+      </c>
+      <c r="AD458">
+        <v>2.8</v>
+      </c>
+      <c r="AE458">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF458">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG458">
+        <v>1.04</v>
+      </c>
+      <c r="AH458">
+        <v>71.72</v>
+      </c>
+      <c r="AI458">
+        <v>0.718</v>
+      </c>
+      <c r="AJ458">
+        <v>4824</v>
+      </c>
+      <c r="AK458">
+        <v>145</v>
+      </c>
+      <c r="AL458">
+        <v>5360</v>
+      </c>
+      <c r="AM458">
+        <v>-681</v>
+      </c>
+      <c r="AN458">
+        <v>1826527</v>
+      </c>
+      <c r="AO458">
+        <v>50723</v>
+      </c>
+      <c r="AP458">
+        <v>1674479</v>
+      </c>
+      <c r="AQ458">
+        <v>101325</v>
+      </c>
+      <c r="AR458">
+        <v>0.03005804311774461</v>
+      </c>
+      <c r="AS458">
+        <v>0.09018339533753342</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="48">
   <si>
     <t>continent</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS458"/>
+  <dimension ref="A1:AS461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63148,22 +63148,22 @@
         <v>44348</v>
       </c>
       <c r="E458">
-        <v>53491</v>
+        <v>51600</v>
       </c>
       <c r="F458" t="s">
         <v>45</v>
       </c>
       <c r="G458">
-        <v>41.135</v>
+        <v>41.323</v>
       </c>
       <c r="H458">
-        <v>0.196</v>
+        <v>0.189</v>
       </c>
       <c r="I458">
-        <v>61588</v>
+        <v>60122</v>
       </c>
       <c r="J458">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="K458">
         <v>27308881</v>
@@ -63268,7 +63268,418 @@
         <v>0.03005804311774461</v>
       </c>
       <c r="AS458">
-        <v>0.09018339533753342</v>
+        <v>0.09348837209302326</v>
+      </c>
+    </row>
+    <row r="459" spans="1:45">
+      <c r="A459" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B459" t="s">
+        <v>46</v>
+      </c>
+      <c r="C459" t="s">
+        <v>47</v>
+      </c>
+      <c r="D459" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E459">
+        <v>49731</v>
+      </c>
+      <c r="F459" t="s">
+        <v>45</v>
+      </c>
+      <c r="G459">
+        <v>41.505</v>
+      </c>
+      <c r="H459">
+        <v>0.182</v>
+      </c>
+      <c r="I459">
+        <v>59181</v>
+      </c>
+      <c r="J459">
+        <v>0.216</v>
+      </c>
+      <c r="K459">
+        <v>27619247</v>
+      </c>
+      <c r="L459">
+        <v>16766263</v>
+      </c>
+      <c r="M459">
+        <v>10852984</v>
+      </c>
+      <c r="N459">
+        <v>310366</v>
+      </c>
+      <c r="O459">
+        <v>230810</v>
+      </c>
+      <c r="P459">
+        <v>10.1</v>
+      </c>
+      <c r="Q459">
+        <v>6.13</v>
+      </c>
+      <c r="R459">
+        <v>3.97</v>
+      </c>
+      <c r="S459">
+        <v>844</v>
+      </c>
+      <c r="T459">
+        <v>68.98</v>
+      </c>
+      <c r="U459">
+        <v>273523621</v>
+      </c>
+      <c r="V459">
+        <v>145.725</v>
+      </c>
+      <c r="W459">
+        <v>29.3</v>
+      </c>
+      <c r="X459">
+        <v>5.319</v>
+      </c>
+      <c r="Y459">
+        <v>3.053</v>
+      </c>
+      <c r="Z459">
+        <v>11188.744</v>
+      </c>
+      <c r="AA459">
+        <v>5.7</v>
+      </c>
+      <c r="AB459">
+        <v>342.864</v>
+      </c>
+      <c r="AC459">
+        <v>6.32</v>
+      </c>
+      <c r="AD459">
+        <v>2.8</v>
+      </c>
+      <c r="AE459">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF459">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG459">
+        <v>1.04</v>
+      </c>
+      <c r="AH459">
+        <v>71.72</v>
+      </c>
+      <c r="AI459">
+        <v>0.718</v>
+      </c>
+      <c r="AJ459">
+        <v>5246</v>
+      </c>
+      <c r="AK459">
+        <v>185</v>
+      </c>
+      <c r="AL459">
+        <v>6022</v>
+      </c>
+      <c r="AM459">
+        <v>-961</v>
+      </c>
+      <c r="AN459">
+        <v>1831773</v>
+      </c>
+      <c r="AO459">
+        <v>50908</v>
+      </c>
+      <c r="AP459">
+        <v>1680501</v>
+      </c>
+      <c r="AQ459">
+        <v>100364</v>
+      </c>
+      <c r="AR459">
+        <v>0.03526496378192909</v>
+      </c>
+      <c r="AS459">
+        <v>0.105487522873057</v>
+      </c>
+    </row>
+    <row r="460" spans="1:45">
+      <c r="A460" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B460" t="s">
+        <v>46</v>
+      </c>
+      <c r="C460" t="s">
+        <v>47</v>
+      </c>
+      <c r="D460" s="2">
+        <v>44350</v>
+      </c>
+      <c r="E460">
+        <v>58367</v>
+      </c>
+      <c r="F460" t="s">
+        <v>45</v>
+      </c>
+      <c r="G460">
+        <v>41.719</v>
+      </c>
+      <c r="H460">
+        <v>0.213</v>
+      </c>
+      <c r="I460">
+        <v>58607</v>
+      </c>
+      <c r="J460">
+        <v>0.214</v>
+      </c>
+      <c r="K460">
+        <v>28027750</v>
+      </c>
+      <c r="L460">
+        <v>17042850</v>
+      </c>
+      <c r="M460">
+        <v>10984900</v>
+      </c>
+      <c r="N460">
+        <v>408503</v>
+      </c>
+      <c r="O460">
+        <v>257538</v>
+      </c>
+      <c r="P460">
+        <v>10.25</v>
+      </c>
+      <c r="Q460">
+        <v>6.23</v>
+      </c>
+      <c r="R460">
+        <v>4.02</v>
+      </c>
+      <c r="S460">
+        <v>942</v>
+      </c>
+      <c r="T460">
+        <v>68.98</v>
+      </c>
+      <c r="U460">
+        <v>273523621</v>
+      </c>
+      <c r="V460">
+        <v>145.725</v>
+      </c>
+      <c r="W460">
+        <v>29.3</v>
+      </c>
+      <c r="X460">
+        <v>5.319</v>
+      </c>
+      <c r="Y460">
+        <v>3.053</v>
+      </c>
+      <c r="Z460">
+        <v>11188.744</v>
+      </c>
+      <c r="AA460">
+        <v>5.7</v>
+      </c>
+      <c r="AB460">
+        <v>342.864</v>
+      </c>
+      <c r="AC460">
+        <v>6.32</v>
+      </c>
+      <c r="AD460">
+        <v>2.8</v>
+      </c>
+      <c r="AE460">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF460">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG460">
+        <v>1.04</v>
+      </c>
+      <c r="AH460">
+        <v>71.72</v>
+      </c>
+      <c r="AI460">
+        <v>0.718</v>
+      </c>
+      <c r="AJ460">
+        <v>5353</v>
+      </c>
+      <c r="AK460">
+        <v>187</v>
+      </c>
+      <c r="AL460">
+        <v>11092</v>
+      </c>
+      <c r="AM460">
+        <v>-5926</v>
+      </c>
+      <c r="AN460">
+        <v>1837126</v>
+      </c>
+      <c r="AO460">
+        <v>51095</v>
+      </c>
+      <c r="AP460">
+        <v>1691593</v>
+      </c>
+      <c r="AQ460">
+        <v>94438</v>
+      </c>
+      <c r="AR460">
+        <v>0.03493368204745003</v>
+      </c>
+      <c r="AS460">
+        <v>0.09171278290815016</v>
+      </c>
+    </row>
+    <row r="461" spans="1:45">
+      <c r="A461" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B461" t="s">
+        <v>46</v>
+      </c>
+      <c r="C461" t="s">
+        <v>47</v>
+      </c>
+      <c r="D461" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E461">
+        <v>58367</v>
+      </c>
+      <c r="F461" t="s">
+        <v>45</v>
+      </c>
+      <c r="G461">
+        <v>41.719</v>
+      </c>
+      <c r="H461">
+        <v>0.213</v>
+      </c>
+      <c r="I461">
+        <v>58607</v>
+      </c>
+      <c r="J461">
+        <v>0.214</v>
+      </c>
+      <c r="K461">
+        <v>28027750</v>
+      </c>
+      <c r="L461">
+        <v>17042850</v>
+      </c>
+      <c r="M461">
+        <v>10984900</v>
+      </c>
+      <c r="N461">
+        <v>408503</v>
+      </c>
+      <c r="O461">
+        <v>257538</v>
+      </c>
+      <c r="P461">
+        <v>10.25</v>
+      </c>
+      <c r="Q461">
+        <v>6.23</v>
+      </c>
+      <c r="R461">
+        <v>4.02</v>
+      </c>
+      <c r="S461">
+        <v>942</v>
+      </c>
+      <c r="T461">
+        <v>68.98</v>
+      </c>
+      <c r="U461">
+        <v>273523621</v>
+      </c>
+      <c r="V461">
+        <v>145.725</v>
+      </c>
+      <c r="W461">
+        <v>29.3</v>
+      </c>
+      <c r="X461">
+        <v>5.319</v>
+      </c>
+      <c r="Y461">
+        <v>3.053</v>
+      </c>
+      <c r="Z461">
+        <v>11188.744</v>
+      </c>
+      <c r="AA461">
+        <v>5.7</v>
+      </c>
+      <c r="AB461">
+        <v>342.864</v>
+      </c>
+      <c r="AC461">
+        <v>6.32</v>
+      </c>
+      <c r="AD461">
+        <v>2.8</v>
+      </c>
+      <c r="AE461">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF461">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG461">
+        <v>1.04</v>
+      </c>
+      <c r="AH461">
+        <v>71.72</v>
+      </c>
+      <c r="AI461">
+        <v>0.718</v>
+      </c>
+      <c r="AJ461">
+        <v>6486</v>
+      </c>
+      <c r="AK461">
+        <v>201</v>
+      </c>
+      <c r="AL461">
+        <v>5950</v>
+      </c>
+      <c r="AM461">
+        <v>335</v>
+      </c>
+      <c r="AN461">
+        <v>1843612</v>
+      </c>
+      <c r="AO461">
+        <v>51296</v>
+      </c>
+      <c r="AP461">
+        <v>1697543</v>
+      </c>
+      <c r="AQ461">
+        <v>94773</v>
+      </c>
+      <c r="AR461">
+        <v>0.03098982423681776</v>
+      </c>
+      <c r="AS461">
+        <v>0.111124436753645</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="48">
   <si>
     <t>continent</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS461"/>
+  <dimension ref="A1:AS464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -63577,31 +63577,31 @@
         <v>0.214</v>
       </c>
       <c r="K461">
-        <v>28027750</v>
+        <v>28486710</v>
       </c>
       <c r="L461">
-        <v>17042850</v>
+        <v>17416321</v>
       </c>
       <c r="M461">
-        <v>10984900</v>
+        <v>11070389</v>
       </c>
       <c r="N461">
-        <v>408503</v>
+        <v>458960</v>
       </c>
       <c r="O461">
-        <v>257538</v>
+        <v>291475</v>
       </c>
       <c r="P461">
-        <v>10.25</v>
+        <v>10.41</v>
       </c>
       <c r="Q461">
-        <v>6.23</v>
+        <v>6.37</v>
       </c>
       <c r="R461">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="S461">
-        <v>942</v>
+        <v>1066</v>
       </c>
       <c r="T461">
         <v>68.98</v>
@@ -63680,6 +63680,417 @@
       </c>
       <c r="AS461">
         <v>0.111124436753645</v>
+      </c>
+    </row>
+    <row r="462" spans="1:45">
+      <c r="A462" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B462" t="s">
+        <v>46</v>
+      </c>
+      <c r="C462" t="s">
+        <v>47</v>
+      </c>
+      <c r="D462" s="2">
+        <v>44352</v>
+      </c>
+      <c r="E462">
+        <v>58367</v>
+      </c>
+      <c r="F462" t="s">
+        <v>45</v>
+      </c>
+      <c r="G462">
+        <v>41.719</v>
+      </c>
+      <c r="H462">
+        <v>0.213</v>
+      </c>
+      <c r="I462">
+        <v>58607</v>
+      </c>
+      <c r="J462">
+        <v>0.214</v>
+      </c>
+      <c r="K462">
+        <v>28702933</v>
+      </c>
+      <c r="L462">
+        <v>17581464</v>
+      </c>
+      <c r="M462">
+        <v>11121469</v>
+      </c>
+      <c r="N462">
+        <v>216223</v>
+      </c>
+      <c r="O462">
+        <v>290735</v>
+      </c>
+      <c r="P462">
+        <v>10.49</v>
+      </c>
+      <c r="Q462">
+        <v>6.43</v>
+      </c>
+      <c r="R462">
+        <v>4.07</v>
+      </c>
+      <c r="S462">
+        <v>1063</v>
+      </c>
+      <c r="T462">
+        <v>68.98</v>
+      </c>
+      <c r="U462">
+        <v>273523621</v>
+      </c>
+      <c r="V462">
+        <v>145.725</v>
+      </c>
+      <c r="W462">
+        <v>29.3</v>
+      </c>
+      <c r="X462">
+        <v>5.319</v>
+      </c>
+      <c r="Y462">
+        <v>3.053</v>
+      </c>
+      <c r="Z462">
+        <v>11188.744</v>
+      </c>
+      <c r="AA462">
+        <v>5.7</v>
+      </c>
+      <c r="AB462">
+        <v>342.864</v>
+      </c>
+      <c r="AC462">
+        <v>6.32</v>
+      </c>
+      <c r="AD462">
+        <v>2.8</v>
+      </c>
+      <c r="AE462">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF462">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG462">
+        <v>1.04</v>
+      </c>
+      <c r="AH462">
+        <v>71.72</v>
+      </c>
+      <c r="AI462">
+        <v>0.718</v>
+      </c>
+      <c r="AJ462">
+        <v>6594</v>
+      </c>
+      <c r="AK462">
+        <v>153</v>
+      </c>
+      <c r="AL462">
+        <v>4241</v>
+      </c>
+      <c r="AM462">
+        <v>2200</v>
+      </c>
+      <c r="AN462">
+        <v>1850206</v>
+      </c>
+      <c r="AO462">
+        <v>51449</v>
+      </c>
+      <c r="AP462">
+        <v>1701784</v>
+      </c>
+      <c r="AQ462">
+        <v>96973</v>
+      </c>
+      <c r="AR462">
+        <v>0.02320291173794358</v>
+      </c>
+      <c r="AS462">
+        <v>0.1129747974026419</v>
+      </c>
+    </row>
+    <row r="463" spans="1:45">
+      <c r="A463" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B463" t="s">
+        <v>46</v>
+      </c>
+      <c r="C463" t="s">
+        <v>47</v>
+      </c>
+      <c r="D463" s="2">
+        <v>44353</v>
+      </c>
+      <c r="E463">
+        <v>58367</v>
+      </c>
+      <c r="F463" t="s">
+        <v>45</v>
+      </c>
+      <c r="G463">
+        <v>41.719</v>
+      </c>
+      <c r="H463">
+        <v>0.213</v>
+      </c>
+      <c r="I463">
+        <v>58607</v>
+      </c>
+      <c r="J463">
+        <v>0.214</v>
+      </c>
+      <c r="K463">
+        <v>28770360</v>
+      </c>
+      <c r="L463">
+        <v>17643603</v>
+      </c>
+      <c r="M463">
+        <v>11126757</v>
+      </c>
+      <c r="N463">
+        <v>67427</v>
+      </c>
+      <c r="O463">
+        <v>268739</v>
+      </c>
+      <c r="P463">
+        <v>10.52</v>
+      </c>
+      <c r="Q463">
+        <v>6.45</v>
+      </c>
+      <c r="R463">
+        <v>4.07</v>
+      </c>
+      <c r="S463">
+        <v>983</v>
+      </c>
+      <c r="T463">
+        <v>68.98</v>
+      </c>
+      <c r="U463">
+        <v>273523621</v>
+      </c>
+      <c r="V463">
+        <v>145.725</v>
+      </c>
+      <c r="W463">
+        <v>29.3</v>
+      </c>
+      <c r="X463">
+        <v>5.319</v>
+      </c>
+      <c r="Y463">
+        <v>3.053</v>
+      </c>
+      <c r="Z463">
+        <v>11188.744</v>
+      </c>
+      <c r="AA463">
+        <v>5.7</v>
+      </c>
+      <c r="AB463">
+        <v>342.864</v>
+      </c>
+      <c r="AC463">
+        <v>6.32</v>
+      </c>
+      <c r="AD463">
+        <v>2.8</v>
+      </c>
+      <c r="AE463">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF463">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG463">
+        <v>1.04</v>
+      </c>
+      <c r="AH463">
+        <v>71.72</v>
+      </c>
+      <c r="AI463">
+        <v>0.718</v>
+      </c>
+      <c r="AJ463">
+        <v>5832</v>
+      </c>
+      <c r="AK463">
+        <v>163</v>
+      </c>
+      <c r="AL463">
+        <v>4187</v>
+      </c>
+      <c r="AM463">
+        <v>1482</v>
+      </c>
+      <c r="AN463">
+        <v>1856038</v>
+      </c>
+      <c r="AO463">
+        <v>51612</v>
+      </c>
+      <c r="AP463">
+        <v>1705971</v>
+      </c>
+      <c r="AQ463">
+        <v>98455</v>
+      </c>
+      <c r="AR463">
+        <v>0.02794924554183813</v>
+      </c>
+      <c r="AS463">
+        <v>0.09991947504583069</v>
+      </c>
+    </row>
+    <row r="464" spans="1:45">
+      <c r="A464" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B464" t="s">
+        <v>46</v>
+      </c>
+      <c r="C464" t="s">
+        <v>47</v>
+      </c>
+      <c r="D464" s="2">
+        <v>44354</v>
+      </c>
+      <c r="E464">
+        <v>58367</v>
+      </c>
+      <c r="F464" t="s">
+        <v>45</v>
+      </c>
+      <c r="G464">
+        <v>41.719</v>
+      </c>
+      <c r="H464">
+        <v>0.213</v>
+      </c>
+      <c r="I464">
+        <v>58607</v>
+      </c>
+      <c r="J464">
+        <v>0.214</v>
+      </c>
+      <c r="K464">
+        <v>28770360</v>
+      </c>
+      <c r="L464">
+        <v>17643603</v>
+      </c>
+      <c r="M464">
+        <v>11126757</v>
+      </c>
+      <c r="N464">
+        <v>67427</v>
+      </c>
+      <c r="O464">
+        <v>268739</v>
+      </c>
+      <c r="P464">
+        <v>10.52</v>
+      </c>
+      <c r="Q464">
+        <v>6.45</v>
+      </c>
+      <c r="R464">
+        <v>4.07</v>
+      </c>
+      <c r="S464">
+        <v>983</v>
+      </c>
+      <c r="T464">
+        <v>68.98</v>
+      </c>
+      <c r="U464">
+        <v>273523621</v>
+      </c>
+      <c r="V464">
+        <v>145.725</v>
+      </c>
+      <c r="W464">
+        <v>29.3</v>
+      </c>
+      <c r="X464">
+        <v>5.319</v>
+      </c>
+      <c r="Y464">
+        <v>3.053</v>
+      </c>
+      <c r="Z464">
+        <v>11188.744</v>
+      </c>
+      <c r="AA464">
+        <v>5.7</v>
+      </c>
+      <c r="AB464">
+        <v>342.864</v>
+      </c>
+      <c r="AC464">
+        <v>6.32</v>
+      </c>
+      <c r="AD464">
+        <v>2.8</v>
+      </c>
+      <c r="AE464">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF464">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG464">
+        <v>1.04</v>
+      </c>
+      <c r="AH464">
+        <v>71.72</v>
+      </c>
+      <c r="AI464">
+        <v>0.718</v>
+      </c>
+      <c r="AJ464">
+        <v>6993</v>
+      </c>
+      <c r="AK464">
+        <v>191</v>
+      </c>
+      <c r="AL464">
+        <v>5594</v>
+      </c>
+      <c r="AM464">
+        <v>1208</v>
+      </c>
+      <c r="AN464">
+        <v>1863031</v>
+      </c>
+      <c r="AO464">
+        <v>51803</v>
+      </c>
+      <c r="AP464">
+        <v>1711565</v>
+      </c>
+      <c r="AQ464">
+        <v>99663</v>
+      </c>
+      <c r="AR464">
+        <v>0.02731302731302731</v>
+      </c>
+      <c r="AS464">
+        <v>0.119810852022547</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/covid19_indonesia_complete_version.xlsx
+++ b/Dataset/covid19_indonesia_complete_version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="49">
   <si>
     <t>continent</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT474"/>
+  <dimension ref="A1:AT517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66622,22 +66622,22 @@
         <v>44363</v>
       </c>
       <c r="E473">
-        <v>59153</v>
+        <v>42072</v>
       </c>
       <c r="F473">
-        <v>12139998</v>
+        <v>12182070</v>
       </c>
       <c r="G473">
-        <v>44.384</v>
+        <v>44.538</v>
       </c>
       <c r="H473">
-        <v>0.216</v>
+        <v>0.154</v>
       </c>
       <c r="I473">
-        <v>62442</v>
+        <v>58486</v>
       </c>
       <c r="J473">
-        <v>0.228</v>
+        <v>0.214</v>
       </c>
       <c r="K473">
         <v>33264392</v>
@@ -66745,7 +66745,7 @@
         <v>0.01971037811745776</v>
       </c>
       <c r="AT473">
-        <v>0.1681064358527885</v>
+        <v>0.2363567218102301</v>
       </c>
     </row>
     <row r="474" spans="1:46">
@@ -66762,49 +66762,49 @@
         <v>44364</v>
       </c>
       <c r="E474">
-        <v>59153</v>
+        <v>79322</v>
       </c>
       <c r="F474">
-        <v>12139998</v>
+        <v>12261392</v>
       </c>
       <c r="G474">
-        <v>44.384</v>
+        <v>44.828</v>
       </c>
       <c r="H474">
-        <v>0.216</v>
+        <v>0.29</v>
       </c>
       <c r="I474">
-        <v>62442</v>
+        <v>59851</v>
       </c>
       <c r="J474">
-        <v>0.228</v>
+        <v>0.219</v>
       </c>
       <c r="K474">
-        <v>33264392</v>
+        <v>33962386</v>
       </c>
       <c r="L474">
-        <v>21448774</v>
+        <v>21999256</v>
       </c>
       <c r="M474">
-        <v>11815618</v>
+        <v>11963130</v>
       </c>
       <c r="N474">
-        <v>660648</v>
+        <v>697994</v>
       </c>
       <c r="O474">
-        <v>444195</v>
+        <v>466005</v>
       </c>
       <c r="P474">
-        <v>12.16</v>
+        <v>12.42</v>
       </c>
       <c r="Q474">
-        <v>7.84</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="R474">
-        <v>4.32</v>
+        <v>4.37</v>
       </c>
       <c r="S474">
-        <v>1624</v>
+        <v>1704</v>
       </c>
       <c r="T474">
         <v>68.98</v>
@@ -66885,7 +66885,6027 @@
         <v>0.02194233206590621</v>
       </c>
       <c r="AT474">
-        <v>0.2134126756039423</v>
+        <v>0.1591487859610196</v>
+      </c>
+    </row>
+    <row r="475" spans="1:46">
+      <c r="A475" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B475" t="s">
+        <v>47</v>
+      </c>
+      <c r="C475" t="s">
+        <v>48</v>
+      </c>
+      <c r="D475" s="2">
+        <v>44365</v>
+      </c>
+      <c r="E475">
+        <v>73805</v>
+      </c>
+      <c r="F475">
+        <v>12335197</v>
+      </c>
+      <c r="G475">
+        <v>45.097</v>
+      </c>
+      <c r="H475">
+        <v>0.27</v>
+      </c>
+      <c r="I475">
+        <v>59797</v>
+      </c>
+      <c r="J475">
+        <v>0.219</v>
+      </c>
+      <c r="K475">
+        <v>34551233</v>
+      </c>
+      <c r="L475">
+        <v>22455167</v>
+      </c>
+      <c r="M475">
+        <v>12096066</v>
+      </c>
+      <c r="N475">
+        <v>588847</v>
+      </c>
+      <c r="O475">
+        <v>479375</v>
+      </c>
+      <c r="P475">
+        <v>12.63</v>
+      </c>
+      <c r="Q475">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="R475">
+        <v>4.42</v>
+      </c>
+      <c r="S475">
+        <v>1753</v>
+      </c>
+      <c r="T475">
+        <v>68.98</v>
+      </c>
+      <c r="U475">
+        <v>273523621</v>
+      </c>
+      <c r="V475">
+        <v>145.725</v>
+      </c>
+      <c r="W475">
+        <v>29.3</v>
+      </c>
+      <c r="X475">
+        <v>5.319</v>
+      </c>
+      <c r="Y475">
+        <v>3.053</v>
+      </c>
+      <c r="Z475">
+        <v>11188.744</v>
+      </c>
+      <c r="AA475">
+        <v>5.7</v>
+      </c>
+      <c r="AB475">
+        <v>342.864</v>
+      </c>
+      <c r="AC475">
+        <v>6.32</v>
+      </c>
+      <c r="AD475">
+        <v>2.8</v>
+      </c>
+      <c r="AE475">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF475">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG475">
+        <v>1.04</v>
+      </c>
+      <c r="AH475">
+        <v>71.72</v>
+      </c>
+      <c r="AI475">
+        <v>0.718</v>
+      </c>
+      <c r="AJ475">
+        <v>0</v>
+      </c>
+      <c r="AK475">
+        <v>12990</v>
+      </c>
+      <c r="AL475">
+        <v>290</v>
+      </c>
+      <c r="AM475">
+        <v>7907</v>
+      </c>
+      <c r="AN475">
+        <v>4793</v>
+      </c>
+      <c r="AO475">
+        <v>1963266</v>
+      </c>
+      <c r="AP475">
+        <v>54043</v>
+      </c>
+      <c r="AQ475">
+        <v>1779127</v>
+      </c>
+      <c r="AR475">
+        <v>130096</v>
+      </c>
+      <c r="AS475">
+        <v>0.02232486528098537</v>
+      </c>
+      <c r="AT475">
+        <v>0.1760043357496105</v>
+      </c>
+    </row>
+    <row r="476" spans="1:46">
+      <c r="A476" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B476" t="s">
+        <v>47</v>
+      </c>
+      <c r="C476" t="s">
+        <v>48</v>
+      </c>
+      <c r="D476" s="2">
+        <v>44366</v>
+      </c>
+      <c r="E476">
+        <v>75605</v>
+      </c>
+      <c r="F476">
+        <v>12410802</v>
+      </c>
+      <c r="G476">
+        <v>45.374</v>
+      </c>
+      <c r="H476">
+        <v>0.276</v>
+      </c>
+      <c r="I476">
+        <v>61574</v>
+      </c>
+      <c r="J476">
+        <v>0.225</v>
+      </c>
+      <c r="K476">
+        <v>35086248</v>
+      </c>
+      <c r="L476">
+        <v>22873342</v>
+      </c>
+      <c r="M476">
+        <v>12212906</v>
+      </c>
+      <c r="N476">
+        <v>535015</v>
+      </c>
+      <c r="O476">
+        <v>497560</v>
+      </c>
+      <c r="P476">
+        <v>12.83</v>
+      </c>
+      <c r="Q476">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="R476">
+        <v>4.47</v>
+      </c>
+      <c r="S476">
+        <v>1819</v>
+      </c>
+      <c r="T476">
+        <v>68.98</v>
+      </c>
+      <c r="U476">
+        <v>273523621</v>
+      </c>
+      <c r="V476">
+        <v>145.725</v>
+      </c>
+      <c r="W476">
+        <v>29.3</v>
+      </c>
+      <c r="X476">
+        <v>5.319</v>
+      </c>
+      <c r="Y476">
+        <v>3.053</v>
+      </c>
+      <c r="Z476">
+        <v>11188.744</v>
+      </c>
+      <c r="AA476">
+        <v>5.7</v>
+      </c>
+      <c r="AB476">
+        <v>342.864</v>
+      </c>
+      <c r="AC476">
+        <v>6.32</v>
+      </c>
+      <c r="AD476">
+        <v>2.8</v>
+      </c>
+      <c r="AE476">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF476">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG476">
+        <v>1.04</v>
+      </c>
+      <c r="AH476">
+        <v>71.72</v>
+      </c>
+      <c r="AI476">
+        <v>0.718</v>
+      </c>
+      <c r="AJ476">
+        <v>0</v>
+      </c>
+      <c r="AK476">
+        <v>12906</v>
+      </c>
+      <c r="AL476">
+        <v>248</v>
+      </c>
+      <c r="AM476">
+        <v>7016</v>
+      </c>
+      <c r="AN476">
+        <v>5642</v>
+      </c>
+      <c r="AO476">
+        <v>1976172</v>
+      </c>
+      <c r="AP476">
+        <v>54291</v>
+      </c>
+      <c r="AQ476">
+        <v>1786143</v>
+      </c>
+      <c r="AR476">
+        <v>135738</v>
+      </c>
+      <c r="AS476">
+        <v>0.01921586858825353</v>
+      </c>
+      <c r="AT476">
+        <v>0.1707029958336089</v>
+      </c>
+    </row>
+    <row r="477" spans="1:46">
+      <c r="A477" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B477" t="s">
+        <v>47</v>
+      </c>
+      <c r="C477" t="s">
+        <v>48</v>
+      </c>
+      <c r="D477" s="2">
+        <v>44367</v>
+      </c>
+      <c r="E477">
+        <v>60229</v>
+      </c>
+      <c r="F477">
+        <v>12471031</v>
+      </c>
+      <c r="G477">
+        <v>45.594</v>
+      </c>
+      <c r="H477">
+        <v>0.22</v>
+      </c>
+      <c r="I477">
+        <v>63271</v>
+      </c>
+      <c r="J477">
+        <v>0.231</v>
+      </c>
+      <c r="K477">
+        <v>35283078</v>
+      </c>
+      <c r="L477">
+        <v>23043372</v>
+      </c>
+      <c r="M477">
+        <v>12239706</v>
+      </c>
+      <c r="N477">
+        <v>196830</v>
+      </c>
+      <c r="O477">
+        <v>507957</v>
+      </c>
+      <c r="P477">
+        <v>12.9</v>
+      </c>
+      <c r="Q477">
+        <v>8.42</v>
+      </c>
+      <c r="R477">
+        <v>4.47</v>
+      </c>
+      <c r="S477">
+        <v>1857</v>
+      </c>
+      <c r="T477">
+        <v>68.98</v>
+      </c>
+      <c r="U477">
+        <v>273523621</v>
+      </c>
+      <c r="V477">
+        <v>145.725</v>
+      </c>
+      <c r="W477">
+        <v>29.3</v>
+      </c>
+      <c r="X477">
+        <v>5.319</v>
+      </c>
+      <c r="Y477">
+        <v>3.053</v>
+      </c>
+      <c r="Z477">
+        <v>11188.744</v>
+      </c>
+      <c r="AA477">
+        <v>5.7</v>
+      </c>
+      <c r="AB477">
+        <v>342.864</v>
+      </c>
+      <c r="AC477">
+        <v>6.32</v>
+      </c>
+      <c r="AD477">
+        <v>2.8</v>
+      </c>
+      <c r="AE477">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF477">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG477">
+        <v>1.04</v>
+      </c>
+      <c r="AH477">
+        <v>71.72</v>
+      </c>
+      <c r="AI477">
+        <v>0.718</v>
+      </c>
+      <c r="AJ477">
+        <v>0</v>
+      </c>
+      <c r="AK477">
+        <v>13737</v>
+      </c>
+      <c r="AL477">
+        <v>371</v>
+      </c>
+      <c r="AM477">
+        <v>6385</v>
+      </c>
+      <c r="AN477">
+        <v>6981</v>
+      </c>
+      <c r="AO477">
+        <v>1989909</v>
+      </c>
+      <c r="AP477">
+        <v>54662</v>
+      </c>
+      <c r="AQ477">
+        <v>1792528</v>
+      </c>
+      <c r="AR477">
+        <v>142719</v>
+      </c>
+      <c r="AS477">
+        <v>0.02700735240591104</v>
+      </c>
+      <c r="AT477">
+        <v>0.2280794965880224</v>
+      </c>
+    </row>
+    <row r="478" spans="1:46">
+      <c r="A478" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B478" t="s">
+        <v>47</v>
+      </c>
+      <c r="C478" t="s">
+        <v>48</v>
+      </c>
+      <c r="D478" s="2">
+        <v>44368</v>
+      </c>
+      <c r="E478">
+        <v>62361</v>
+      </c>
+      <c r="F478">
+        <v>12533392</v>
+      </c>
+      <c r="G478">
+        <v>45.822</v>
+      </c>
+      <c r="H478">
+        <v>0.228</v>
+      </c>
+      <c r="I478">
+        <v>64650</v>
+      </c>
+      <c r="J478">
+        <v>0.236</v>
+      </c>
+      <c r="K478">
+        <v>35928647</v>
+      </c>
+      <c r="L478">
+        <v>23530219</v>
+      </c>
+      <c r="M478">
+        <v>12398428</v>
+      </c>
+      <c r="N478">
+        <v>645569</v>
+      </c>
+      <c r="O478">
+        <v>555534</v>
+      </c>
+      <c r="P478">
+        <v>13.14</v>
+      </c>
+      <c r="Q478">
+        <v>8.6</v>
+      </c>
+      <c r="R478">
+        <v>4.53</v>
+      </c>
+      <c r="S478">
+        <v>2031</v>
+      </c>
+      <c r="T478">
+        <v>68.98</v>
+      </c>
+      <c r="U478">
+        <v>273523621</v>
+      </c>
+      <c r="V478">
+        <v>145.725</v>
+      </c>
+      <c r="W478">
+        <v>29.3</v>
+      </c>
+      <c r="X478">
+        <v>5.319</v>
+      </c>
+      <c r="Y478">
+        <v>3.053</v>
+      </c>
+      <c r="Z478">
+        <v>11188.744</v>
+      </c>
+      <c r="AA478">
+        <v>5.7</v>
+      </c>
+      <c r="AB478">
+        <v>342.864</v>
+      </c>
+      <c r="AC478">
+        <v>6.32</v>
+      </c>
+      <c r="AD478">
+        <v>2.8</v>
+      </c>
+      <c r="AE478">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF478">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG478">
+        <v>1.04</v>
+      </c>
+      <c r="AH478">
+        <v>71.72</v>
+      </c>
+      <c r="AI478">
+        <v>0.718</v>
+      </c>
+      <c r="AJ478">
+        <v>0</v>
+      </c>
+      <c r="AK478">
+        <v>14536</v>
+      </c>
+      <c r="AL478">
+        <v>294</v>
+      </c>
+      <c r="AM478">
+        <v>9233</v>
+      </c>
+      <c r="AN478">
+        <v>5009</v>
+      </c>
+      <c r="AO478">
+        <v>2004445</v>
+      </c>
+      <c r="AP478">
+        <v>54956</v>
+      </c>
+      <c r="AQ478">
+        <v>1801761</v>
+      </c>
+      <c r="AR478">
+        <v>147728</v>
+      </c>
+      <c r="AS478">
+        <v>0.02022564667033572</v>
+      </c>
+      <c r="AT478">
+        <v>0.2330944019499367</v>
+      </c>
+    </row>
+    <row r="479" spans="1:46">
+      <c r="A479" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B479" t="s">
+        <v>47</v>
+      </c>
+      <c r="C479" t="s">
+        <v>48</v>
+      </c>
+      <c r="D479" s="2">
+        <v>44369</v>
+      </c>
+      <c r="E479">
+        <v>70742</v>
+      </c>
+      <c r="F479">
+        <v>12604134</v>
+      </c>
+      <c r="G479">
+        <v>46.081</v>
+      </c>
+      <c r="H479">
+        <v>0.259</v>
+      </c>
+      <c r="I479">
+        <v>66305</v>
+      </c>
+      <c r="J479">
+        <v>0.242</v>
+      </c>
+      <c r="K479">
+        <v>36581555</v>
+      </c>
+      <c r="L479">
+        <v>23998166</v>
+      </c>
+      <c r="M479">
+        <v>12583389</v>
+      </c>
+      <c r="N479">
+        <v>652908</v>
+      </c>
+      <c r="O479">
+        <v>568259</v>
+      </c>
+      <c r="P479">
+        <v>13.37</v>
+      </c>
+      <c r="Q479">
+        <v>8.77</v>
+      </c>
+      <c r="R479">
+        <v>4.6</v>
+      </c>
+      <c r="S479">
+        <v>2078</v>
+      </c>
+      <c r="T479">
+        <v>68.98</v>
+      </c>
+      <c r="U479">
+        <v>273523621</v>
+      </c>
+      <c r="V479">
+        <v>145.725</v>
+      </c>
+      <c r="W479">
+        <v>29.3</v>
+      </c>
+      <c r="X479">
+        <v>5.319</v>
+      </c>
+      <c r="Y479">
+        <v>3.053</v>
+      </c>
+      <c r="Z479">
+        <v>11188.744</v>
+      </c>
+      <c r="AA479">
+        <v>5.7</v>
+      </c>
+      <c r="AB479">
+        <v>342.864</v>
+      </c>
+      <c r="AC479">
+        <v>6.32</v>
+      </c>
+      <c r="AD479">
+        <v>2.8</v>
+      </c>
+      <c r="AE479">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF479">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG479">
+        <v>1.04</v>
+      </c>
+      <c r="AH479">
+        <v>71.72</v>
+      </c>
+      <c r="AI479">
+        <v>0.718</v>
+      </c>
+      <c r="AJ479">
+        <v>0</v>
+      </c>
+      <c r="AK479">
+        <v>13668</v>
+      </c>
+      <c r="AL479">
+        <v>335</v>
+      </c>
+      <c r="AM479">
+        <v>8375</v>
+      </c>
+      <c r="AN479">
+        <v>4958</v>
+      </c>
+      <c r="AO479">
+        <v>2018113</v>
+      </c>
+      <c r="AP479">
+        <v>55291</v>
+      </c>
+      <c r="AQ479">
+        <v>1810136</v>
+      </c>
+      <c r="AR479">
+        <v>152686</v>
+      </c>
+      <c r="AS479">
+        <v>0.02450980392156863</v>
+      </c>
+      <c r="AT479">
+        <v>0.193209126120268</v>
+      </c>
+    </row>
+    <row r="480" spans="1:46">
+      <c r="A480" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B480" t="s">
+        <v>47</v>
+      </c>
+      <c r="C480" t="s">
+        <v>48</v>
+      </c>
+      <c r="D480" s="2">
+        <v>44370</v>
+      </c>
+      <c r="E480">
+        <v>74391</v>
+      </c>
+      <c r="F480">
+        <v>12678525</v>
+      </c>
+      <c r="G480">
+        <v>46.353</v>
+      </c>
+      <c r="H480">
+        <v>0.272</v>
+      </c>
+      <c r="I480">
+        <v>70922</v>
+      </c>
+      <c r="J480">
+        <v>0.259</v>
+      </c>
+      <c r="K480">
+        <v>36998897</v>
+      </c>
+      <c r="L480">
+        <v>24358856</v>
+      </c>
+      <c r="M480">
+        <v>12640041</v>
+      </c>
+      <c r="N480">
+        <v>417342</v>
+      </c>
+      <c r="O480">
+        <v>533501</v>
+      </c>
+      <c r="P480">
+        <v>13.53</v>
+      </c>
+      <c r="Q480">
+        <v>8.91</v>
+      </c>
+      <c r="R480">
+        <v>4.62</v>
+      </c>
+      <c r="S480">
+        <v>1950</v>
+      </c>
+      <c r="T480">
+        <v>68.98</v>
+      </c>
+      <c r="U480">
+        <v>273523621</v>
+      </c>
+      <c r="V480">
+        <v>145.725</v>
+      </c>
+      <c r="W480">
+        <v>29.3</v>
+      </c>
+      <c r="X480">
+        <v>5.319</v>
+      </c>
+      <c r="Y480">
+        <v>3.053</v>
+      </c>
+      <c r="Z480">
+        <v>11188.744</v>
+      </c>
+      <c r="AA480">
+        <v>5.7</v>
+      </c>
+      <c r="AB480">
+        <v>342.864</v>
+      </c>
+      <c r="AC480">
+        <v>6.32</v>
+      </c>
+      <c r="AD480">
+        <v>2.8</v>
+      </c>
+      <c r="AE480">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF480">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG480">
+        <v>1.04</v>
+      </c>
+      <c r="AH480">
+        <v>71.72</v>
+      </c>
+      <c r="AI480">
+        <v>0.718</v>
+      </c>
+      <c r="AJ480">
+        <v>0</v>
+      </c>
+      <c r="AK480">
+        <v>15308</v>
+      </c>
+      <c r="AL480">
+        <v>303</v>
+      </c>
+      <c r="AM480">
+        <v>7167</v>
+      </c>
+      <c r="AN480">
+        <v>7838</v>
+      </c>
+      <c r="AO480">
+        <v>2033421</v>
+      </c>
+      <c r="AP480">
+        <v>55594</v>
+      </c>
+      <c r="AQ480">
+        <v>1817303</v>
+      </c>
+      <c r="AR480">
+        <v>160524</v>
+      </c>
+      <c r="AS480">
+        <v>0.01979357198850274</v>
+      </c>
+      <c r="AT480">
+        <v>0.2057775806213117</v>
+      </c>
+    </row>
+    <row r="481" spans="1:46">
+      <c r="A481" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B481" t="s">
+        <v>47</v>
+      </c>
+      <c r="C481" t="s">
+        <v>48</v>
+      </c>
+      <c r="D481" s="2">
+        <v>44371</v>
+      </c>
+      <c r="E481">
+        <v>74391</v>
+      </c>
+      <c r="F481">
+        <v>12678525</v>
+      </c>
+      <c r="G481">
+        <v>46.353</v>
+      </c>
+      <c r="H481">
+        <v>0.272</v>
+      </c>
+      <c r="I481">
+        <v>72873</v>
+      </c>
+      <c r="J481">
+        <v>0.266</v>
+      </c>
+      <c r="K481">
+        <v>37699231</v>
+      </c>
+      <c r="L481">
+        <v>24929442</v>
+      </c>
+      <c r="M481">
+        <v>12769789</v>
+      </c>
+      <c r="N481">
+        <v>700334</v>
+      </c>
+      <c r="O481">
+        <v>533835</v>
+      </c>
+      <c r="P481">
+        <v>13.78</v>
+      </c>
+      <c r="Q481">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="R481">
+        <v>4.67</v>
+      </c>
+      <c r="S481">
+        <v>1952</v>
+      </c>
+      <c r="T481">
+        <v>68.98</v>
+      </c>
+      <c r="U481">
+        <v>273523621</v>
+      </c>
+      <c r="V481">
+        <v>145.725</v>
+      </c>
+      <c r="W481">
+        <v>29.3</v>
+      </c>
+      <c r="X481">
+        <v>5.319</v>
+      </c>
+      <c r="Y481">
+        <v>3.053</v>
+      </c>
+      <c r="Z481">
+        <v>11188.744</v>
+      </c>
+      <c r="AA481">
+        <v>5.7</v>
+      </c>
+      <c r="AB481">
+        <v>342.864</v>
+      </c>
+      <c r="AC481">
+        <v>6.32</v>
+      </c>
+      <c r="AD481">
+        <v>2.8</v>
+      </c>
+      <c r="AE481">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF481">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG481">
+        <v>1.04</v>
+      </c>
+      <c r="AH481">
+        <v>71.72</v>
+      </c>
+      <c r="AI481">
+        <v>0.718</v>
+      </c>
+      <c r="AJ481">
+        <v>0</v>
+      </c>
+      <c r="AK481">
+        <v>20574</v>
+      </c>
+      <c r="AL481">
+        <v>355</v>
+      </c>
+      <c r="AM481">
+        <v>9201</v>
+      </c>
+      <c r="AN481">
+        <v>11018</v>
+      </c>
+      <c r="AO481">
+        <v>2053995</v>
+      </c>
+      <c r="AP481">
+        <v>55949</v>
+      </c>
+      <c r="AQ481">
+        <v>1826504</v>
+      </c>
+      <c r="AR481">
+        <v>171542</v>
+      </c>
+      <c r="AS481">
+        <v>0.01725478759599494</v>
+      </c>
+      <c r="AT481">
+        <v>0.2765657135943864</v>
+      </c>
+    </row>
+    <row r="482" spans="1:46">
+      <c r="A482" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B482" t="s">
+        <v>47</v>
+      </c>
+      <c r="C482" t="s">
+        <v>48</v>
+      </c>
+      <c r="D482" s="2">
+        <v>44372</v>
+      </c>
+      <c r="E482">
+        <v>74391</v>
+      </c>
+      <c r="F482">
+        <v>12864479</v>
+      </c>
+      <c r="G482">
+        <v>47.032</v>
+      </c>
+      <c r="H482">
+        <v>0.272</v>
+      </c>
+      <c r="I482">
+        <v>75612</v>
+      </c>
+      <c r="J482">
+        <v>0.276</v>
+      </c>
+      <c r="K482">
+        <v>38394659</v>
+      </c>
+      <c r="L482">
+        <v>25482036</v>
+      </c>
+      <c r="M482">
+        <v>12912623</v>
+      </c>
+      <c r="N482">
+        <v>695428</v>
+      </c>
+      <c r="O482">
+        <v>549061</v>
+      </c>
+      <c r="P482">
+        <v>14.04</v>
+      </c>
+      <c r="Q482">
+        <v>9.32</v>
+      </c>
+      <c r="R482">
+        <v>4.72</v>
+      </c>
+      <c r="S482">
+        <v>2007</v>
+      </c>
+      <c r="T482">
+        <v>68.98</v>
+      </c>
+      <c r="U482">
+        <v>273523621</v>
+      </c>
+      <c r="V482">
+        <v>145.725</v>
+      </c>
+      <c r="W482">
+        <v>29.3</v>
+      </c>
+      <c r="X482">
+        <v>5.319</v>
+      </c>
+      <c r="Y482">
+        <v>3.053</v>
+      </c>
+      <c r="Z482">
+        <v>11188.744</v>
+      </c>
+      <c r="AA482">
+        <v>5.7</v>
+      </c>
+      <c r="AB482">
+        <v>342.864</v>
+      </c>
+      <c r="AC482">
+        <v>6.32</v>
+      </c>
+      <c r="AD482">
+        <v>2.8</v>
+      </c>
+      <c r="AE482">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF482">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG482">
+        <v>1.04</v>
+      </c>
+      <c r="AH482">
+        <v>71.72</v>
+      </c>
+      <c r="AI482">
+        <v>0.718</v>
+      </c>
+      <c r="AJ482">
+        <v>0</v>
+      </c>
+      <c r="AK482">
+        <v>18872</v>
+      </c>
+      <c r="AL482">
+        <v>422</v>
+      </c>
+      <c r="AM482">
+        <v>8557</v>
+      </c>
+      <c r="AN482">
+        <v>9893</v>
+      </c>
+      <c r="AO482">
+        <v>2072867</v>
+      </c>
+      <c r="AP482">
+        <v>56371</v>
+      </c>
+      <c r="AQ482">
+        <v>1835061</v>
+      </c>
+      <c r="AR482">
+        <v>181435</v>
+      </c>
+      <c r="AS482">
+        <v>0.02236116998728275</v>
+      </c>
+      <c r="AT482">
+        <v>0.2536866018738826</v>
+      </c>
+    </row>
+    <row r="483" spans="1:46">
+      <c r="A483" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B483" t="s">
+        <v>47</v>
+      </c>
+      <c r="C483" t="s">
+        <v>48</v>
+      </c>
+      <c r="D483" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E483">
+        <v>98274</v>
+      </c>
+      <c r="F483">
+        <v>12962753</v>
+      </c>
+      <c r="G483">
+        <v>47.392</v>
+      </c>
+      <c r="H483">
+        <v>0.359</v>
+      </c>
+      <c r="I483">
+        <v>78850</v>
+      </c>
+      <c r="J483">
+        <v>0.288</v>
+      </c>
+      <c r="K483">
+        <v>39050655</v>
+      </c>
+      <c r="L483">
+        <v>26032131</v>
+      </c>
+      <c r="M483">
+        <v>13018524</v>
+      </c>
+      <c r="N483">
+        <v>655996</v>
+      </c>
+      <c r="O483">
+        <v>566344</v>
+      </c>
+      <c r="P483">
+        <v>14.28</v>
+      </c>
+      <c r="Q483">
+        <v>9.52</v>
+      </c>
+      <c r="R483">
+        <v>4.76</v>
+      </c>
+      <c r="S483">
+        <v>2071</v>
+      </c>
+      <c r="T483">
+        <v>68.98</v>
+      </c>
+      <c r="U483">
+        <v>273523621</v>
+      </c>
+      <c r="V483">
+        <v>145.725</v>
+      </c>
+      <c r="W483">
+        <v>29.3</v>
+      </c>
+      <c r="X483">
+        <v>5.319</v>
+      </c>
+      <c r="Y483">
+        <v>3.053</v>
+      </c>
+      <c r="Z483">
+        <v>11188.744</v>
+      </c>
+      <c r="AA483">
+        <v>5.7</v>
+      </c>
+      <c r="AB483">
+        <v>342.864</v>
+      </c>
+      <c r="AC483">
+        <v>6.32</v>
+      </c>
+      <c r="AD483">
+        <v>2.8</v>
+      </c>
+      <c r="AE483">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF483">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG483">
+        <v>1.04</v>
+      </c>
+      <c r="AH483">
+        <v>71.72</v>
+      </c>
+      <c r="AI483">
+        <v>0.718</v>
+      </c>
+      <c r="AJ483">
+        <v>0</v>
+      </c>
+      <c r="AK483">
+        <v>21095</v>
+      </c>
+      <c r="AL483">
+        <v>358</v>
+      </c>
+      <c r="AM483">
+        <v>7396</v>
+      </c>
+      <c r="AN483">
+        <v>13341</v>
+      </c>
+      <c r="AO483">
+        <v>2093962</v>
+      </c>
+      <c r="AP483">
+        <v>56729</v>
+      </c>
+      <c r="AQ483">
+        <v>1842457</v>
+      </c>
+      <c r="AR483">
+        <v>194776</v>
+      </c>
+      <c r="AS483">
+        <v>0.01697084617207869</v>
+      </c>
+      <c r="AT483">
+        <v>0.2146549443392962</v>
+      </c>
+    </row>
+    <row r="484" spans="1:46">
+      <c r="A484" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B484" t="s">
+        <v>47</v>
+      </c>
+      <c r="C484" t="s">
+        <v>48</v>
+      </c>
+      <c r="D484" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E484">
+        <v>79533</v>
+      </c>
+      <c r="F484">
+        <v>13042286</v>
+      </c>
+      <c r="G484">
+        <v>47.682</v>
+      </c>
+      <c r="H484">
+        <v>0.291</v>
+      </c>
+      <c r="I484">
+        <v>81608</v>
+      </c>
+      <c r="J484">
+        <v>0.298</v>
+      </c>
+      <c r="K484">
+        <v>40315983</v>
+      </c>
+      <c r="L484">
+        <v>27200222</v>
+      </c>
+      <c r="M484">
+        <v>13115761</v>
+      </c>
+      <c r="N484">
+        <v>1265328</v>
+      </c>
+      <c r="O484">
+        <v>718986</v>
+      </c>
+      <c r="P484">
+        <v>14.74</v>
+      </c>
+      <c r="Q484">
+        <v>9.94</v>
+      </c>
+      <c r="R484">
+        <v>4.8</v>
+      </c>
+      <c r="S484">
+        <v>2629</v>
+      </c>
+      <c r="T484">
+        <v>68.98</v>
+      </c>
+      <c r="U484">
+        <v>273523621</v>
+      </c>
+      <c r="V484">
+        <v>145.725</v>
+      </c>
+      <c r="W484">
+        <v>29.3</v>
+      </c>
+      <c r="X484">
+        <v>5.319</v>
+      </c>
+      <c r="Y484">
+        <v>3.053</v>
+      </c>
+      <c r="Z484">
+        <v>11188.744</v>
+      </c>
+      <c r="AA484">
+        <v>5.7</v>
+      </c>
+      <c r="AB484">
+        <v>342.864</v>
+      </c>
+      <c r="AC484">
+        <v>6.32</v>
+      </c>
+      <c r="AD484">
+        <v>2.8</v>
+      </c>
+      <c r="AE484">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF484">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG484">
+        <v>1.04</v>
+      </c>
+      <c r="AH484">
+        <v>71.72</v>
+      </c>
+      <c r="AI484">
+        <v>0.718</v>
+      </c>
+      <c r="AJ484">
+        <v>0</v>
+      </c>
+      <c r="AK484">
+        <v>21342</v>
+      </c>
+      <c r="AL484">
+        <v>409</v>
+      </c>
+      <c r="AM484">
+        <v>8024</v>
+      </c>
+      <c r="AN484">
+        <v>12909</v>
+      </c>
+      <c r="AO484">
+        <v>2115304</v>
+      </c>
+      <c r="AP484">
+        <v>57138</v>
+      </c>
+      <c r="AQ484">
+        <v>1850481</v>
+      </c>
+      <c r="AR484">
+        <v>207685</v>
+      </c>
+      <c r="AS484">
+        <v>0.01916408958860463</v>
+      </c>
+      <c r="AT484">
+        <v>0.2683414431745313</v>
+      </c>
+    </row>
+    <row r="485" spans="1:46">
+      <c r="A485" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B485" t="s">
+        <v>47</v>
+      </c>
+      <c r="C485" t="s">
+        <v>48</v>
+      </c>
+      <c r="D485" s="2">
+        <v>44375</v>
+      </c>
+      <c r="E485">
+        <v>80308</v>
+      </c>
+      <c r="F485">
+        <v>13122594</v>
+      </c>
+      <c r="G485">
+        <v>47.976</v>
+      </c>
+      <c r="H485">
+        <v>0.294</v>
+      </c>
+      <c r="I485">
+        <v>84172</v>
+      </c>
+      <c r="J485">
+        <v>0.308</v>
+      </c>
+      <c r="K485">
+        <v>40601932</v>
+      </c>
+      <c r="L485">
+        <v>27419898</v>
+      </c>
+      <c r="M485">
+        <v>13182034</v>
+      </c>
+      <c r="N485">
+        <v>285949</v>
+      </c>
+      <c r="O485">
+        <v>667612</v>
+      </c>
+      <c r="P485">
+        <v>14.84</v>
+      </c>
+      <c r="Q485">
+        <v>10.02</v>
+      </c>
+      <c r="R485">
+        <v>4.82</v>
+      </c>
+      <c r="S485">
+        <v>2441</v>
+      </c>
+      <c r="T485">
+        <v>68.98</v>
+      </c>
+      <c r="U485">
+        <v>273523621</v>
+      </c>
+      <c r="V485">
+        <v>145.725</v>
+      </c>
+      <c r="W485">
+        <v>29.3</v>
+      </c>
+      <c r="X485">
+        <v>5.319</v>
+      </c>
+      <c r="Y485">
+        <v>3.053</v>
+      </c>
+      <c r="Z485">
+        <v>11188.744</v>
+      </c>
+      <c r="AA485">
+        <v>5.7</v>
+      </c>
+      <c r="AB485">
+        <v>342.864</v>
+      </c>
+      <c r="AC485">
+        <v>6.32</v>
+      </c>
+      <c r="AD485">
+        <v>2.8</v>
+      </c>
+      <c r="AE485">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF485">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG485">
+        <v>1.04</v>
+      </c>
+      <c r="AH485">
+        <v>71.72</v>
+      </c>
+      <c r="AI485">
+        <v>0.718</v>
+      </c>
+      <c r="AJ485">
+        <v>0</v>
+      </c>
+      <c r="AK485">
+        <v>20694</v>
+      </c>
+      <c r="AL485">
+        <v>423</v>
+      </c>
+      <c r="AM485">
+        <v>9480</v>
+      </c>
+      <c r="AN485">
+        <v>10791</v>
+      </c>
+      <c r="AO485">
+        <v>2135998</v>
+      </c>
+      <c r="AP485">
+        <v>57561</v>
+      </c>
+      <c r="AQ485">
+        <v>1859961</v>
+      </c>
+      <c r="AR485">
+        <v>218476</v>
+      </c>
+      <c r="AS485">
+        <v>0.0204407074514352</v>
+      </c>
+      <c r="AT485">
+        <v>0.2576829207550929</v>
+      </c>
+    </row>
+    <row r="486" spans="1:46">
+      <c r="A486" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B486" t="s">
+        <v>47</v>
+      </c>
+      <c r="C486" t="s">
+        <v>48</v>
+      </c>
+      <c r="D486" s="2">
+        <v>44376</v>
+      </c>
+      <c r="E486">
+        <v>103265</v>
+      </c>
+      <c r="F486">
+        <v>13225859</v>
+      </c>
+      <c r="G486">
+        <v>48.354</v>
+      </c>
+      <c r="H486">
+        <v>0.378</v>
+      </c>
+      <c r="I486">
+        <v>88818</v>
+      </c>
+      <c r="J486">
+        <v>0.325</v>
+      </c>
+      <c r="K486">
+        <v>42040501</v>
+      </c>
+      <c r="L486">
+        <v>28671106</v>
+      </c>
+      <c r="M486">
+        <v>13369395</v>
+      </c>
+      <c r="N486">
+        <v>1438569</v>
+      </c>
+      <c r="O486">
+        <v>779849</v>
+      </c>
+      <c r="P486">
+        <v>15.37</v>
+      </c>
+      <c r="Q486">
+        <v>10.48</v>
+      </c>
+      <c r="R486">
+        <v>4.89</v>
+      </c>
+      <c r="S486">
+        <v>2851</v>
+      </c>
+      <c r="T486">
+        <v>68.98</v>
+      </c>
+      <c r="U486">
+        <v>273523621</v>
+      </c>
+      <c r="V486">
+        <v>145.725</v>
+      </c>
+      <c r="W486">
+        <v>29.3</v>
+      </c>
+      <c r="X486">
+        <v>5.319</v>
+      </c>
+      <c r="Y486">
+        <v>3.053</v>
+      </c>
+      <c r="Z486">
+        <v>11188.744</v>
+      </c>
+      <c r="AA486">
+        <v>5.7</v>
+      </c>
+      <c r="AB486">
+        <v>342.864</v>
+      </c>
+      <c r="AC486">
+        <v>6.32</v>
+      </c>
+      <c r="AD486">
+        <v>2.8</v>
+      </c>
+      <c r="AE486">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF486">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG486">
+        <v>1.04</v>
+      </c>
+      <c r="AH486">
+        <v>71.72</v>
+      </c>
+      <c r="AI486">
+        <v>0.718</v>
+      </c>
+      <c r="AJ486">
+        <v>0</v>
+      </c>
+      <c r="AK486">
+        <v>20467</v>
+      </c>
+      <c r="AL486">
+        <v>463</v>
+      </c>
+      <c r="AM486">
+        <v>9645</v>
+      </c>
+      <c r="AN486">
+        <v>10359</v>
+      </c>
+      <c r="AO486">
+        <v>2156465</v>
+      </c>
+      <c r="AP486">
+        <v>58024</v>
+      </c>
+      <c r="AQ486">
+        <v>1869606</v>
+      </c>
+      <c r="AR486">
+        <v>228835</v>
+      </c>
+      <c r="AS486">
+        <v>0.02262178140421166</v>
+      </c>
+      <c r="AT486">
+        <v>0.1981988088897497</v>
+      </c>
+    </row>
+    <row r="487" spans="1:46">
+      <c r="A487" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B487" t="s">
+        <v>47</v>
+      </c>
+      <c r="C487" t="s">
+        <v>48</v>
+      </c>
+      <c r="D487" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E487">
+        <v>100313</v>
+      </c>
+      <c r="F487">
+        <v>13326172</v>
+      </c>
+      <c r="G487">
+        <v>48.72</v>
+      </c>
+      <c r="H487">
+        <v>0.367</v>
+      </c>
+      <c r="I487">
+        <v>92521</v>
+      </c>
+      <c r="J487">
+        <v>0.338</v>
+      </c>
+      <c r="K487">
+        <v>42744641</v>
+      </c>
+      <c r="L487">
+        <v>29279142</v>
+      </c>
+      <c r="M487">
+        <v>13465499</v>
+      </c>
+      <c r="N487">
+        <v>704140</v>
+      </c>
+      <c r="O487">
+        <v>820821</v>
+      </c>
+      <c r="P487">
+        <v>15.63</v>
+      </c>
+      <c r="Q487">
+        <v>10.7</v>
+      </c>
+      <c r="R487">
+        <v>4.92</v>
+      </c>
+      <c r="S487">
+        <v>3001</v>
+      </c>
+      <c r="T487">
+        <v>68.98</v>
+      </c>
+      <c r="U487">
+        <v>273523621</v>
+      </c>
+      <c r="V487">
+        <v>145.725</v>
+      </c>
+      <c r="W487">
+        <v>29.3</v>
+      </c>
+      <c r="X487">
+        <v>5.319</v>
+      </c>
+      <c r="Y487">
+        <v>3.053</v>
+      </c>
+      <c r="Z487">
+        <v>11188.744</v>
+      </c>
+      <c r="AA487">
+        <v>5.7</v>
+      </c>
+      <c r="AB487">
+        <v>342.864</v>
+      </c>
+      <c r="AC487">
+        <v>6.32</v>
+      </c>
+      <c r="AD487">
+        <v>2.8</v>
+      </c>
+      <c r="AE487">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF487">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG487">
+        <v>1.04</v>
+      </c>
+      <c r="AH487">
+        <v>71.72</v>
+      </c>
+      <c r="AI487">
+        <v>0.718</v>
+      </c>
+      <c r="AJ487">
+        <v>0</v>
+      </c>
+      <c r="AK487">
+        <v>21807</v>
+      </c>
+      <c r="AL487">
+        <v>467</v>
+      </c>
+      <c r="AM487">
+        <v>10807</v>
+      </c>
+      <c r="AN487">
+        <v>10533</v>
+      </c>
+      <c r="AO487">
+        <v>2178272</v>
+      </c>
+      <c r="AP487">
+        <v>58491</v>
+      </c>
+      <c r="AQ487">
+        <v>1880413</v>
+      </c>
+      <c r="AR487">
+        <v>239368</v>
+      </c>
+      <c r="AS487">
+        <v>0.0214151419269042</v>
+      </c>
+      <c r="AT487">
+        <v>0.2173895706438846</v>
+      </c>
+    </row>
+    <row r="488" spans="1:46">
+      <c r="A488" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B488" t="s">
+        <v>47</v>
+      </c>
+      <c r="C488" t="s">
+        <v>48</v>
+      </c>
+      <c r="D488" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E488">
+        <v>98572</v>
+      </c>
+      <c r="F488">
+        <v>13424744</v>
+      </c>
+      <c r="G488">
+        <v>49.081</v>
+      </c>
+      <c r="H488">
+        <v>0.36</v>
+      </c>
+      <c r="I488">
+        <v>93320</v>
+      </c>
+      <c r="J488">
+        <v>0.341</v>
+      </c>
+      <c r="K488">
+        <v>44160960</v>
+      </c>
+      <c r="L488">
+        <v>30483730</v>
+      </c>
+      <c r="M488">
+        <v>13677230</v>
+      </c>
+      <c r="N488">
+        <v>1416319</v>
+      </c>
+      <c r="O488">
+        <v>923104</v>
+      </c>
+      <c r="P488">
+        <v>16.15</v>
+      </c>
+      <c r="Q488">
+        <v>11.14</v>
+      </c>
+      <c r="R488">
+        <v>5</v>
+      </c>
+      <c r="S488">
+        <v>3375</v>
+      </c>
+      <c r="T488">
+        <v>68.98</v>
+      </c>
+      <c r="U488">
+        <v>273523621</v>
+      </c>
+      <c r="V488">
+        <v>145.725</v>
+      </c>
+      <c r="W488">
+        <v>29.3</v>
+      </c>
+      <c r="X488">
+        <v>5.319</v>
+      </c>
+      <c r="Y488">
+        <v>3.053</v>
+      </c>
+      <c r="Z488">
+        <v>11188.744</v>
+      </c>
+      <c r="AA488">
+        <v>5.7</v>
+      </c>
+      <c r="AB488">
+        <v>342.864</v>
+      </c>
+      <c r="AC488">
+        <v>6.32</v>
+      </c>
+      <c r="AD488">
+        <v>2.8</v>
+      </c>
+      <c r="AE488">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF488">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG488">
+        <v>1.04</v>
+      </c>
+      <c r="AH488">
+        <v>71.72</v>
+      </c>
+      <c r="AI488">
+        <v>0.718</v>
+      </c>
+      <c r="AJ488">
+        <v>0</v>
+      </c>
+      <c r="AK488">
+        <v>24836</v>
+      </c>
+      <c r="AL488">
+        <v>504</v>
+      </c>
+      <c r="AM488">
+        <v>9874</v>
+      </c>
+      <c r="AN488">
+        <v>14458</v>
+      </c>
+      <c r="AO488">
+        <v>2203108</v>
+      </c>
+      <c r="AP488">
+        <v>58995</v>
+      </c>
+      <c r="AQ488">
+        <v>1890287</v>
+      </c>
+      <c r="AR488">
+        <v>253826</v>
+      </c>
+      <c r="AS488">
+        <v>0.02029312288613303</v>
+      </c>
+      <c r="AT488">
+        <v>0.251957959664002</v>
+      </c>
+    </row>
+    <row r="489" spans="1:46">
+      <c r="A489" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B489" t="s">
+        <v>47</v>
+      </c>
+      <c r="C489" t="s">
+        <v>48</v>
+      </c>
+      <c r="D489" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E489">
+        <v>102765</v>
+      </c>
+      <c r="F489">
+        <v>13527509</v>
+      </c>
+      <c r="G489">
+        <v>49.456</v>
+      </c>
+      <c r="H489">
+        <v>0.376</v>
+      </c>
+      <c r="I489">
+        <v>94719</v>
+      </c>
+      <c r="J489">
+        <v>0.346</v>
+      </c>
+      <c r="K489">
+        <v>44661928</v>
+      </c>
+      <c r="L489">
+        <v>30891821</v>
+      </c>
+      <c r="M489">
+        <v>13770107</v>
+      </c>
+      <c r="N489">
+        <v>500968</v>
+      </c>
+      <c r="O489">
+        <v>895324</v>
+      </c>
+      <c r="P489">
+        <v>16.33</v>
+      </c>
+      <c r="Q489">
+        <v>11.29</v>
+      </c>
+      <c r="R489">
+        <v>5.03</v>
+      </c>
+      <c r="S489">
+        <v>3273</v>
+      </c>
+      <c r="T489">
+        <v>68.98</v>
+      </c>
+      <c r="U489">
+        <v>273523621</v>
+      </c>
+      <c r="V489">
+        <v>145.725</v>
+      </c>
+      <c r="W489">
+        <v>29.3</v>
+      </c>
+      <c r="X489">
+        <v>5.319</v>
+      </c>
+      <c r="Y489">
+        <v>3.053</v>
+      </c>
+      <c r="Z489">
+        <v>11188.744</v>
+      </c>
+      <c r="AA489">
+        <v>5.7</v>
+      </c>
+      <c r="AB489">
+        <v>342.864</v>
+      </c>
+      <c r="AC489">
+        <v>6.32</v>
+      </c>
+      <c r="AD489">
+        <v>2.8</v>
+      </c>
+      <c r="AE489">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF489">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG489">
+        <v>1.04</v>
+      </c>
+      <c r="AH489">
+        <v>71.72</v>
+      </c>
+      <c r="AI489">
+        <v>0.718</v>
+      </c>
+      <c r="AJ489">
+        <v>0</v>
+      </c>
+      <c r="AK489">
+        <v>25830</v>
+      </c>
+      <c r="AL489">
+        <v>539</v>
+      </c>
+      <c r="AM489">
+        <v>11578</v>
+      </c>
+      <c r="AN489">
+        <v>13713</v>
+      </c>
+      <c r="AO489">
+        <v>2228938</v>
+      </c>
+      <c r="AP489">
+        <v>59534</v>
+      </c>
+      <c r="AQ489">
+        <v>1901865</v>
+      </c>
+      <c r="AR489">
+        <v>267539</v>
+      </c>
+      <c r="AS489">
+        <v>0.02086720867208672</v>
+      </c>
+      <c r="AT489">
+        <v>0.2513501678587068</v>
+      </c>
+    </row>
+    <row r="490" spans="1:46">
+      <c r="A490" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B490" t="s">
+        <v>47</v>
+      </c>
+      <c r="C490" t="s">
+        <v>48</v>
+      </c>
+      <c r="D490" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E490">
+        <v>110983</v>
+      </c>
+      <c r="F490">
+        <v>13638492</v>
+      </c>
+      <c r="G490">
+        <v>49.862</v>
+      </c>
+      <c r="H490">
+        <v>0.406</v>
+      </c>
+      <c r="I490">
+        <v>96534</v>
+      </c>
+      <c r="J490">
+        <v>0.353</v>
+      </c>
+      <c r="K490">
+        <v>45495972</v>
+      </c>
+      <c r="L490">
+        <v>31573240</v>
+      </c>
+      <c r="M490">
+        <v>13922732</v>
+      </c>
+      <c r="N490">
+        <v>834044</v>
+      </c>
+      <c r="O490">
+        <v>920760</v>
+      </c>
+      <c r="P490">
+        <v>16.63</v>
+      </c>
+      <c r="Q490">
+        <v>11.54</v>
+      </c>
+      <c r="R490">
+        <v>5.09</v>
+      </c>
+      <c r="S490">
+        <v>3366</v>
+      </c>
+      <c r="T490">
+        <v>68.98</v>
+      </c>
+      <c r="U490">
+        <v>273523621</v>
+      </c>
+      <c r="V490">
+        <v>145.725</v>
+      </c>
+      <c r="W490">
+        <v>29.3</v>
+      </c>
+      <c r="X490">
+        <v>5.319</v>
+      </c>
+      <c r="Y490">
+        <v>3.053</v>
+      </c>
+      <c r="Z490">
+        <v>11188.744</v>
+      </c>
+      <c r="AA490">
+        <v>5.7</v>
+      </c>
+      <c r="AB490">
+        <v>342.864</v>
+      </c>
+      <c r="AC490">
+        <v>6.32</v>
+      </c>
+      <c r="AD490">
+        <v>2.8</v>
+      </c>
+      <c r="AE490">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF490">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG490">
+        <v>1.04</v>
+      </c>
+      <c r="AH490">
+        <v>71.72</v>
+      </c>
+      <c r="AI490">
+        <v>0.718</v>
+      </c>
+      <c r="AJ490">
+        <v>0</v>
+      </c>
+      <c r="AK490">
+        <v>27913</v>
+      </c>
+      <c r="AL490">
+        <v>493</v>
+      </c>
+      <c r="AM490">
+        <v>13282</v>
+      </c>
+      <c r="AN490">
+        <v>14138</v>
+      </c>
+      <c r="AO490">
+        <v>2256851</v>
+      </c>
+      <c r="AP490">
+        <v>60027</v>
+      </c>
+      <c r="AQ490">
+        <v>1915147</v>
+      </c>
+      <c r="AR490">
+        <v>281677</v>
+      </c>
+      <c r="AS490">
+        <v>0.01766202128040698</v>
+      </c>
+      <c r="AT490">
+        <v>0.2515069875566528</v>
+      </c>
+    </row>
+    <row r="491" spans="1:46">
+      <c r="A491" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B491" t="s">
+        <v>47</v>
+      </c>
+      <c r="C491" t="s">
+        <v>48</v>
+      </c>
+      <c r="D491" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E491">
+        <v>86292</v>
+      </c>
+      <c r="F491">
+        <v>13724784</v>
+      </c>
+      <c r="G491">
+        <v>50.178</v>
+      </c>
+      <c r="H491">
+        <v>0.315</v>
+      </c>
+      <c r="I491">
+        <v>97500</v>
+      </c>
+      <c r="J491">
+        <v>0.356</v>
+      </c>
+      <c r="K491">
+        <v>46043309</v>
+      </c>
+      <c r="L491">
+        <v>32063745</v>
+      </c>
+      <c r="M491">
+        <v>13979564</v>
+      </c>
+      <c r="N491">
+        <v>547337</v>
+      </c>
+      <c r="O491">
+        <v>818189</v>
+      </c>
+      <c r="P491">
+        <v>16.83</v>
+      </c>
+      <c r="Q491">
+        <v>11.72</v>
+      </c>
+      <c r="R491">
+        <v>5.11</v>
+      </c>
+      <c r="S491">
+        <v>2991</v>
+      </c>
+      <c r="T491">
+        <v>68.98</v>
+      </c>
+      <c r="U491">
+        <v>273523621</v>
+      </c>
+      <c r="V491">
+        <v>145.725</v>
+      </c>
+      <c r="W491">
+        <v>29.3</v>
+      </c>
+      <c r="X491">
+        <v>5.319</v>
+      </c>
+      <c r="Y491">
+        <v>3.053</v>
+      </c>
+      <c r="Z491">
+        <v>11188.744</v>
+      </c>
+      <c r="AA491">
+        <v>5.7</v>
+      </c>
+      <c r="AB491">
+        <v>342.864</v>
+      </c>
+      <c r="AC491">
+        <v>6.32</v>
+      </c>
+      <c r="AD491">
+        <v>2.8</v>
+      </c>
+      <c r="AE491">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF491">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG491">
+        <v>1.04</v>
+      </c>
+      <c r="AH491">
+        <v>71.72</v>
+      </c>
+      <c r="AI491">
+        <v>0.718</v>
+      </c>
+      <c r="AJ491">
+        <v>0</v>
+      </c>
+      <c r="AK491">
+        <v>27233</v>
+      </c>
+      <c r="AL491">
+        <v>555</v>
+      </c>
+      <c r="AM491">
+        <v>13127</v>
+      </c>
+      <c r="AN491">
+        <v>13551</v>
+      </c>
+      <c r="AO491">
+        <v>2284084</v>
+      </c>
+      <c r="AP491">
+        <v>60582</v>
+      </c>
+      <c r="AQ491">
+        <v>1928274</v>
+      </c>
+      <c r="AR491">
+        <v>295228</v>
+      </c>
+      <c r="AS491">
+        <v>0.02037968640987038</v>
+      </c>
+      <c r="AT491">
+        <v>0.3155912483196588</v>
+      </c>
+    </row>
+    <row r="492" spans="1:46">
+      <c r="A492" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B492" t="s">
+        <v>47</v>
+      </c>
+      <c r="C492" t="s">
+        <v>48</v>
+      </c>
+      <c r="D492" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E492">
+        <v>92398</v>
+      </c>
+      <c r="F492">
+        <v>13817182</v>
+      </c>
+      <c r="G492">
+        <v>50.515</v>
+      </c>
+      <c r="H492">
+        <v>0.338</v>
+      </c>
+      <c r="I492">
+        <v>99227</v>
+      </c>
+      <c r="J492">
+        <v>0.363</v>
+      </c>
+      <c r="K492">
+        <v>46338202</v>
+      </c>
+      <c r="L492">
+        <v>32302268</v>
+      </c>
+      <c r="M492">
+        <v>14035934</v>
+      </c>
+      <c r="N492">
+        <v>294893</v>
+      </c>
+      <c r="O492">
+        <v>819467</v>
+      </c>
+      <c r="P492">
+        <v>16.94</v>
+      </c>
+      <c r="Q492">
+        <v>11.81</v>
+      </c>
+      <c r="R492">
+        <v>5.13</v>
+      </c>
+      <c r="S492">
+        <v>2996</v>
+      </c>
+      <c r="T492">
+        <v>68.98</v>
+      </c>
+      <c r="U492">
+        <v>273523621</v>
+      </c>
+      <c r="V492">
+        <v>145.725</v>
+      </c>
+      <c r="W492">
+        <v>29.3</v>
+      </c>
+      <c r="X492">
+        <v>5.319</v>
+      </c>
+      <c r="Y492">
+        <v>3.053</v>
+      </c>
+      <c r="Z492">
+        <v>11188.744</v>
+      </c>
+      <c r="AA492">
+        <v>5.7</v>
+      </c>
+      <c r="AB492">
+        <v>342.864</v>
+      </c>
+      <c r="AC492">
+        <v>6.32</v>
+      </c>
+      <c r="AD492">
+        <v>2.8</v>
+      </c>
+      <c r="AE492">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF492">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG492">
+        <v>1.04</v>
+      </c>
+      <c r="AH492">
+        <v>71.72</v>
+      </c>
+      <c r="AI492">
+        <v>0.718</v>
+      </c>
+      <c r="AJ492">
+        <v>0</v>
+      </c>
+      <c r="AK492">
+        <v>29745</v>
+      </c>
+      <c r="AL492">
+        <v>558</v>
+      </c>
+      <c r="AM492">
+        <v>14416</v>
+      </c>
+      <c r="AN492">
+        <v>14771</v>
+      </c>
+      <c r="AO492">
+        <v>2313829</v>
+      </c>
+      <c r="AP492">
+        <v>61140</v>
+      </c>
+      <c r="AQ492">
+        <v>1942690</v>
+      </c>
+      <c r="AR492">
+        <v>309999</v>
+      </c>
+      <c r="AS492">
+        <v>0.01875945537065053</v>
+      </c>
+      <c r="AT492">
+        <v>0.3219225524361999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:46">
+      <c r="A493" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B493" t="s">
+        <v>47</v>
+      </c>
+      <c r="C493" t="s">
+        <v>48</v>
+      </c>
+      <c r="D493" s="2">
+        <v>44383</v>
+      </c>
+      <c r="E493">
+        <v>136765</v>
+      </c>
+      <c r="F493">
+        <v>13953947</v>
+      </c>
+      <c r="G493">
+        <v>51.016</v>
+      </c>
+      <c r="H493">
+        <v>0.5</v>
+      </c>
+      <c r="I493">
+        <v>104013</v>
+      </c>
+      <c r="J493">
+        <v>0.38</v>
+      </c>
+      <c r="K493">
+        <v>47444009</v>
+      </c>
+      <c r="L493">
+        <v>33176029</v>
+      </c>
+      <c r="M493">
+        <v>14267980</v>
+      </c>
+      <c r="N493">
+        <v>1105807</v>
+      </c>
+      <c r="O493">
+        <v>771930</v>
+      </c>
+      <c r="P493">
+        <v>17.35</v>
+      </c>
+      <c r="Q493">
+        <v>12.13</v>
+      </c>
+      <c r="R493">
+        <v>5.22</v>
+      </c>
+      <c r="S493">
+        <v>2822</v>
+      </c>
+      <c r="T493">
+        <v>68.98</v>
+      </c>
+      <c r="U493">
+        <v>273523621</v>
+      </c>
+      <c r="V493">
+        <v>145.725</v>
+      </c>
+      <c r="W493">
+        <v>29.3</v>
+      </c>
+      <c r="X493">
+        <v>5.319</v>
+      </c>
+      <c r="Y493">
+        <v>3.053</v>
+      </c>
+      <c r="Z493">
+        <v>11188.744</v>
+      </c>
+      <c r="AA493">
+        <v>5.7</v>
+      </c>
+      <c r="AB493">
+        <v>342.864</v>
+      </c>
+      <c r="AC493">
+        <v>6.32</v>
+      </c>
+      <c r="AD493">
+        <v>2.8</v>
+      </c>
+      <c r="AE493">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF493">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG493">
+        <v>1.04</v>
+      </c>
+      <c r="AH493">
+        <v>71.72</v>
+      </c>
+      <c r="AI493">
+        <v>0.718</v>
+      </c>
+      <c r="AJ493">
+        <v>0</v>
+      </c>
+      <c r="AK493">
+        <v>31189</v>
+      </c>
+      <c r="AL493">
+        <v>728</v>
+      </c>
+      <c r="AM493">
+        <v>15863</v>
+      </c>
+      <c r="AN493">
+        <v>14598</v>
+      </c>
+      <c r="AO493">
+        <v>2345018</v>
+      </c>
+      <c r="AP493">
+        <v>61868</v>
+      </c>
+      <c r="AQ493">
+        <v>1958553</v>
+      </c>
+      <c r="AR493">
+        <v>324597</v>
+      </c>
+      <c r="AS493">
+        <v>0.02334156273044984</v>
+      </c>
+      <c r="AT493">
+        <v>0.2280481117244909</v>
+      </c>
+    </row>
+    <row r="494" spans="1:46">
+      <c r="A494" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B494" t="s">
+        <v>47</v>
+      </c>
+      <c r="C494" t="s">
+        <v>48</v>
+      </c>
+      <c r="D494" s="2">
+        <v>44384</v>
+      </c>
+      <c r="E494">
+        <v>141957</v>
+      </c>
+      <c r="F494">
+        <v>14095904</v>
+      </c>
+      <c r="G494">
+        <v>51.535</v>
+      </c>
+      <c r="H494">
+        <v>0.519</v>
+      </c>
+      <c r="I494">
+        <v>109962</v>
+      </c>
+      <c r="J494">
+        <v>0.402</v>
+      </c>
+      <c r="K494">
+        <v>48483610</v>
+      </c>
+      <c r="L494">
+        <v>34039797</v>
+      </c>
+      <c r="M494">
+        <v>14443813</v>
+      </c>
+      <c r="N494">
+        <v>1039601</v>
+      </c>
+      <c r="O494">
+        <v>819853</v>
+      </c>
+      <c r="P494">
+        <v>17.73</v>
+      </c>
+      <c r="Q494">
+        <v>12.44</v>
+      </c>
+      <c r="R494">
+        <v>5.28</v>
+      </c>
+      <c r="S494">
+        <v>2997</v>
+      </c>
+      <c r="T494">
+        <v>68.98</v>
+      </c>
+      <c r="U494">
+        <v>273523621</v>
+      </c>
+      <c r="V494">
+        <v>145.725</v>
+      </c>
+      <c r="W494">
+        <v>29.3</v>
+      </c>
+      <c r="X494">
+        <v>5.319</v>
+      </c>
+      <c r="Y494">
+        <v>3.053</v>
+      </c>
+      <c r="Z494">
+        <v>11188.744</v>
+      </c>
+      <c r="AA494">
+        <v>5.7</v>
+      </c>
+      <c r="AB494">
+        <v>342.864</v>
+      </c>
+      <c r="AC494">
+        <v>6.32</v>
+      </c>
+      <c r="AD494">
+        <v>2.8</v>
+      </c>
+      <c r="AE494">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF494">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG494">
+        <v>1.04</v>
+      </c>
+      <c r="AH494">
+        <v>71.72</v>
+      </c>
+      <c r="AI494">
+        <v>0.718</v>
+      </c>
+      <c r="AJ494">
+        <v>0</v>
+      </c>
+      <c r="AK494">
+        <v>34379</v>
+      </c>
+      <c r="AL494">
+        <v>1040</v>
+      </c>
+      <c r="AM494">
+        <v>14835</v>
+      </c>
+      <c r="AN494">
+        <v>18504</v>
+      </c>
+      <c r="AO494">
+        <v>2379397</v>
+      </c>
+      <c r="AP494">
+        <v>62908</v>
+      </c>
+      <c r="AQ494">
+        <v>1973388</v>
+      </c>
+      <c r="AR494">
+        <v>343101</v>
+      </c>
+      <c r="AS494">
+        <v>0.03025102533523372</v>
+      </c>
+      <c r="AT494">
+        <v>0.2421789696880041</v>
+      </c>
+    </row>
+    <row r="495" spans="1:46">
+      <c r="A495" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B495" t="s">
+        <v>47</v>
+      </c>
+      <c r="C495" t="s">
+        <v>48</v>
+      </c>
+      <c r="D495" s="2">
+        <v>44385</v>
+      </c>
+      <c r="E495">
+        <v>135936</v>
+      </c>
+      <c r="F495">
+        <v>14231840</v>
+      </c>
+      <c r="G495">
+        <v>52.031</v>
+      </c>
+      <c r="H495">
+        <v>0.497</v>
+      </c>
+      <c r="I495">
+        <v>115299</v>
+      </c>
+      <c r="J495">
+        <v>0.422</v>
+      </c>
+      <c r="K495">
+        <v>49483188</v>
+      </c>
+      <c r="L495">
+        <v>34860686</v>
+      </c>
+      <c r="M495">
+        <v>14622502</v>
+      </c>
+      <c r="N495">
+        <v>999578</v>
+      </c>
+      <c r="O495">
+        <v>760318</v>
+      </c>
+      <c r="P495">
+        <v>18.09</v>
+      </c>
+      <c r="Q495">
+        <v>12.75</v>
+      </c>
+      <c r="R495">
+        <v>5.35</v>
+      </c>
+      <c r="S495">
+        <v>2780</v>
+      </c>
+      <c r="T495">
+        <v>68.98</v>
+      </c>
+      <c r="U495">
+        <v>273523621</v>
+      </c>
+      <c r="V495">
+        <v>145.725</v>
+      </c>
+      <c r="W495">
+        <v>29.3</v>
+      </c>
+      <c r="X495">
+        <v>5.319</v>
+      </c>
+      <c r="Y495">
+        <v>3.053</v>
+      </c>
+      <c r="Z495">
+        <v>11188.744</v>
+      </c>
+      <c r="AA495">
+        <v>5.7</v>
+      </c>
+      <c r="AB495">
+        <v>342.864</v>
+      </c>
+      <c r="AC495">
+        <v>6.32</v>
+      </c>
+      <c r="AD495">
+        <v>2.8</v>
+      </c>
+      <c r="AE495">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF495">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG495">
+        <v>1.04</v>
+      </c>
+      <c r="AH495">
+        <v>71.72</v>
+      </c>
+      <c r="AI495">
+        <v>0.718</v>
+      </c>
+      <c r="AJ495">
+        <v>0</v>
+      </c>
+      <c r="AK495">
+        <v>38391</v>
+      </c>
+      <c r="AL495">
+        <v>852</v>
+      </c>
+      <c r="AM495">
+        <v>21185</v>
+      </c>
+      <c r="AN495">
+        <v>16354</v>
+      </c>
+      <c r="AO495">
+        <v>2417788</v>
+      </c>
+      <c r="AP495">
+        <v>63760</v>
+      </c>
+      <c r="AQ495">
+        <v>1994573</v>
+      </c>
+      <c r="AR495">
+        <v>359455</v>
+      </c>
+      <c r="AS495">
+        <v>0.022192701414394</v>
+      </c>
+      <c r="AT495">
+        <v>0.282419668079096</v>
+      </c>
+    </row>
+    <row r="496" spans="1:46">
+      <c r="A496" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B496" t="s">
+        <v>47</v>
+      </c>
+      <c r="C496" t="s">
+        <v>48</v>
+      </c>
+      <c r="D496" s="2">
+        <v>44386</v>
+      </c>
+      <c r="E496">
+        <v>142005</v>
+      </c>
+      <c r="F496">
+        <v>14373845</v>
+      </c>
+      <c r="G496">
+        <v>52.551</v>
+      </c>
+      <c r="H496">
+        <v>0.519</v>
+      </c>
+      <c r="I496">
+        <v>120905</v>
+      </c>
+      <c r="J496">
+        <v>0.442</v>
+      </c>
+      <c r="K496">
+        <v>50644144</v>
+      </c>
+      <c r="L496">
+        <v>35775567</v>
+      </c>
+      <c r="M496">
+        <v>14868577</v>
+      </c>
+      <c r="N496">
+        <v>1160956</v>
+      </c>
+      <c r="O496">
+        <v>854602</v>
+      </c>
+      <c r="P496">
+        <v>18.52</v>
+      </c>
+      <c r="Q496">
+        <v>13.08</v>
+      </c>
+      <c r="R496">
+        <v>5.44</v>
+      </c>
+      <c r="S496">
+        <v>3124</v>
+      </c>
+      <c r="T496">
+        <v>68.98</v>
+      </c>
+      <c r="U496">
+        <v>273523621</v>
+      </c>
+      <c r="V496">
+        <v>145.725</v>
+      </c>
+      <c r="W496">
+        <v>29.3</v>
+      </c>
+      <c r="X496">
+        <v>5.319</v>
+      </c>
+      <c r="Y496">
+        <v>3.053</v>
+      </c>
+      <c r="Z496">
+        <v>11188.744</v>
+      </c>
+      <c r="AA496">
+        <v>5.7</v>
+      </c>
+      <c r="AB496">
+        <v>342.864</v>
+      </c>
+      <c r="AC496">
+        <v>6.32</v>
+      </c>
+      <c r="AD496">
+        <v>2.8</v>
+      </c>
+      <c r="AE496">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF496">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG496">
+        <v>1.04</v>
+      </c>
+      <c r="AH496">
+        <v>71.72</v>
+      </c>
+      <c r="AI496">
+        <v>0.718</v>
+      </c>
+      <c r="AJ496">
+        <v>0</v>
+      </c>
+      <c r="AK496">
+        <v>38124</v>
+      </c>
+      <c r="AL496">
+        <v>871</v>
+      </c>
+      <c r="AM496">
+        <v>28975</v>
+      </c>
+      <c r="AN496">
+        <v>8278</v>
+      </c>
+      <c r="AO496">
+        <v>2455912</v>
+      </c>
+      <c r="AP496">
+        <v>64631</v>
+      </c>
+      <c r="AQ496">
+        <v>2023548</v>
+      </c>
+      <c r="AR496">
+        <v>367733</v>
+      </c>
+      <c r="AS496">
+        <v>0.02284650089182667</v>
+      </c>
+      <c r="AT496">
+        <v>0.2684694200908418</v>
+      </c>
+    </row>
+    <row r="497" spans="1:46">
+      <c r="A497" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B497" t="s">
+        <v>47</v>
+      </c>
+      <c r="C497" t="s">
+        <v>48</v>
+      </c>
+      <c r="D497" s="2">
+        <v>44387</v>
+      </c>
+      <c r="E497">
+        <v>145294</v>
+      </c>
+      <c r="F497">
+        <v>14519139</v>
+      </c>
+      <c r="G497">
+        <v>53.082</v>
+      </c>
+      <c r="H497">
+        <v>0.531</v>
+      </c>
+      <c r="I497">
+        <v>125807</v>
+      </c>
+      <c r="J497">
+        <v>0.46</v>
+      </c>
+      <c r="K497">
+        <v>51162406</v>
+      </c>
+      <c r="L497">
+        <v>36193076</v>
+      </c>
+      <c r="M497">
+        <v>14969330</v>
+      </c>
+      <c r="N497">
+        <v>518262</v>
+      </c>
+      <c r="O497">
+        <v>809491</v>
+      </c>
+      <c r="P497">
+        <v>18.7</v>
+      </c>
+      <c r="Q497">
+        <v>13.23</v>
+      </c>
+      <c r="R497">
+        <v>5.47</v>
+      </c>
+      <c r="S497">
+        <v>2959</v>
+      </c>
+      <c r="T497">
+        <v>68.98</v>
+      </c>
+      <c r="U497">
+        <v>273523621</v>
+      </c>
+      <c r="V497">
+        <v>145.725</v>
+      </c>
+      <c r="W497">
+        <v>29.3</v>
+      </c>
+      <c r="X497">
+        <v>5.319</v>
+      </c>
+      <c r="Y497">
+        <v>3.053</v>
+      </c>
+      <c r="Z497">
+        <v>11188.744</v>
+      </c>
+      <c r="AA497">
+        <v>5.7</v>
+      </c>
+      <c r="AB497">
+        <v>342.864</v>
+      </c>
+      <c r="AC497">
+        <v>6.32</v>
+      </c>
+      <c r="AD497">
+        <v>2.8</v>
+      </c>
+      <c r="AE497">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF497">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG497">
+        <v>1.04</v>
+      </c>
+      <c r="AH497">
+        <v>71.72</v>
+      </c>
+      <c r="AI497">
+        <v>0.718</v>
+      </c>
+      <c r="AJ497">
+        <v>0</v>
+      </c>
+      <c r="AK497">
+        <v>35094</v>
+      </c>
+      <c r="AL497">
+        <v>826</v>
+      </c>
+      <c r="AM497">
+        <v>28561</v>
+      </c>
+      <c r="AN497">
+        <v>5707</v>
+      </c>
+      <c r="AO497">
+        <v>2491006</v>
+      </c>
+      <c r="AP497">
+        <v>65457</v>
+      </c>
+      <c r="AQ497">
+        <v>2052109</v>
+      </c>
+      <c r="AR497">
+        <v>373440</v>
+      </c>
+      <c r="AS497">
+        <v>0.02353678691514219</v>
+      </c>
+      <c r="AT497">
+        <v>0.2415378473990667</v>
+      </c>
+    </row>
+    <row r="498" spans="1:46">
+      <c r="A498" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B498" t="s">
+        <v>47</v>
+      </c>
+      <c r="C498" t="s">
+        <v>48</v>
+      </c>
+      <c r="D498" s="2">
+        <v>44388</v>
+      </c>
+      <c r="E498">
+        <v>128055</v>
+      </c>
+      <c r="F498">
+        <v>14647194</v>
+      </c>
+      <c r="G498">
+        <v>53.55</v>
+      </c>
+      <c r="H498">
+        <v>0.468</v>
+      </c>
+      <c r="I498">
+        <v>131773</v>
+      </c>
+      <c r="J498">
+        <v>0.482</v>
+      </c>
+      <c r="K498">
+        <v>51278367</v>
+      </c>
+      <c r="L498">
+        <v>36267019</v>
+      </c>
+      <c r="M498">
+        <v>15011348</v>
+      </c>
+      <c r="N498">
+        <v>115961</v>
+      </c>
+      <c r="O498">
+        <v>747865</v>
+      </c>
+      <c r="P498">
+        <v>18.75</v>
+      </c>
+      <c r="Q498">
+        <v>13.26</v>
+      </c>
+      <c r="R498">
+        <v>5.49</v>
+      </c>
+      <c r="S498">
+        <v>2734</v>
+      </c>
+      <c r="T498">
+        <v>68.98</v>
+      </c>
+      <c r="U498">
+        <v>273523621</v>
+      </c>
+      <c r="V498">
+        <v>145.725</v>
+      </c>
+      <c r="W498">
+        <v>29.3</v>
+      </c>
+      <c r="X498">
+        <v>5.319</v>
+      </c>
+      <c r="Y498">
+        <v>3.053</v>
+      </c>
+      <c r="Z498">
+        <v>11188.744</v>
+      </c>
+      <c r="AA498">
+        <v>5.7</v>
+      </c>
+      <c r="AB498">
+        <v>342.864</v>
+      </c>
+      <c r="AC498">
+        <v>6.32</v>
+      </c>
+      <c r="AD498">
+        <v>2.8</v>
+      </c>
+      <c r="AE498">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF498">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG498">
+        <v>1.04</v>
+      </c>
+      <c r="AH498">
+        <v>71.72</v>
+      </c>
+      <c r="AI498">
+        <v>0.718</v>
+      </c>
+      <c r="AJ498">
+        <v>0</v>
+      </c>
+      <c r="AK498">
+        <v>36197</v>
+      </c>
+      <c r="AL498">
+        <v>1007</v>
+      </c>
+      <c r="AM498">
+        <v>32615</v>
+      </c>
+      <c r="AN498">
+        <v>2575</v>
+      </c>
+      <c r="AO498">
+        <v>2527203</v>
+      </c>
+      <c r="AP498">
+        <v>66464</v>
+      </c>
+      <c r="AQ498">
+        <v>2084724</v>
+      </c>
+      <c r="AR498">
+        <v>376015</v>
+      </c>
+      <c r="AS498">
+        <v>0.0278199850816366</v>
+      </c>
+      <c r="AT498">
+        <v>0.2826676037640077</v>
+      </c>
+    </row>
+    <row r="499" spans="1:46">
+      <c r="A499" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B499" t="s">
+        <v>47</v>
+      </c>
+      <c r="C499" t="s">
+        <v>48</v>
+      </c>
+      <c r="D499" s="2">
+        <v>44389</v>
+      </c>
+      <c r="E499">
+        <v>123317</v>
+      </c>
+      <c r="F499">
+        <v>14770511</v>
+      </c>
+      <c r="G499">
+        <v>54.001</v>
+      </c>
+      <c r="H499">
+        <v>0.451</v>
+      </c>
+      <c r="I499">
+        <v>136190</v>
+      </c>
+      <c r="J499">
+        <v>0.498</v>
+      </c>
+      <c r="K499">
+        <v>51404659</v>
+      </c>
+      <c r="L499">
+        <v>36368191</v>
+      </c>
+      <c r="M499">
+        <v>15036468</v>
+      </c>
+      <c r="N499">
+        <v>126292</v>
+      </c>
+      <c r="O499">
+        <v>723780</v>
+      </c>
+      <c r="P499">
+        <v>18.79</v>
+      </c>
+      <c r="Q499">
+        <v>13.3</v>
+      </c>
+      <c r="R499">
+        <v>5.5</v>
+      </c>
+      <c r="S499">
+        <v>2646</v>
+      </c>
+      <c r="T499">
+        <v>68.98</v>
+      </c>
+      <c r="U499">
+        <v>273523621</v>
+      </c>
+      <c r="V499">
+        <v>145.725</v>
+      </c>
+      <c r="W499">
+        <v>29.3</v>
+      </c>
+      <c r="X499">
+        <v>5.319</v>
+      </c>
+      <c r="Y499">
+        <v>3.053</v>
+      </c>
+      <c r="Z499">
+        <v>11188.744</v>
+      </c>
+      <c r="AA499">
+        <v>5.7</v>
+      </c>
+      <c r="AB499">
+        <v>342.864</v>
+      </c>
+      <c r="AC499">
+        <v>6.32</v>
+      </c>
+      <c r="AD499">
+        <v>2.8</v>
+      </c>
+      <c r="AE499">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF499">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG499">
+        <v>1.04</v>
+      </c>
+      <c r="AH499">
+        <v>71.72</v>
+      </c>
+      <c r="AI499">
+        <v>0.718</v>
+      </c>
+      <c r="AJ499">
+        <v>0</v>
+      </c>
+      <c r="AK499">
+        <v>40427</v>
+      </c>
+      <c r="AL499">
+        <v>891</v>
+      </c>
+      <c r="AM499">
+        <v>34754</v>
+      </c>
+      <c r="AN499">
+        <v>4782</v>
+      </c>
+      <c r="AO499">
+        <v>2567630</v>
+      </c>
+      <c r="AP499">
+        <v>67355</v>
+      </c>
+      <c r="AQ499">
+        <v>2119478</v>
+      </c>
+      <c r="AR499">
+        <v>380797</v>
+      </c>
+      <c r="AS499">
+        <v>0.0220397259257427</v>
+      </c>
+      <c r="AT499">
+        <v>0.3278299017978056</v>
+      </c>
+    </row>
+    <row r="500" spans="1:46">
+      <c r="A500" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B500" t="s">
+        <v>47</v>
+      </c>
+      <c r="C500" t="s">
+        <v>48</v>
+      </c>
+      <c r="D500" s="2">
+        <v>44390</v>
+      </c>
+      <c r="E500">
+        <v>159354</v>
+      </c>
+      <c r="F500">
+        <v>14929865</v>
+      </c>
+      <c r="G500">
+        <v>54.583</v>
+      </c>
+      <c r="H500">
+        <v>0.583</v>
+      </c>
+      <c r="I500">
+        <v>139417</v>
+      </c>
+      <c r="J500">
+        <v>0.51</v>
+      </c>
+      <c r="K500">
+        <v>51433567</v>
+      </c>
+      <c r="L500">
+        <v>36395019</v>
+      </c>
+      <c r="M500">
+        <v>15038548</v>
+      </c>
+      <c r="N500">
+        <v>28908</v>
+      </c>
+      <c r="O500">
+        <v>569937</v>
+      </c>
+      <c r="P500">
+        <v>18.8</v>
+      </c>
+      <c r="Q500">
+        <v>13.31</v>
+      </c>
+      <c r="R500">
+        <v>5.5</v>
+      </c>
+      <c r="S500">
+        <v>2084</v>
+      </c>
+      <c r="T500">
+        <v>68.98</v>
+      </c>
+      <c r="U500">
+        <v>273523621</v>
+      </c>
+      <c r="V500">
+        <v>145.725</v>
+      </c>
+      <c r="W500">
+        <v>29.3</v>
+      </c>
+      <c r="X500">
+        <v>5.319</v>
+      </c>
+      <c r="Y500">
+        <v>3.053</v>
+      </c>
+      <c r="Z500">
+        <v>11188.744</v>
+      </c>
+      <c r="AA500">
+        <v>5.7</v>
+      </c>
+      <c r="AB500">
+        <v>342.864</v>
+      </c>
+      <c r="AC500">
+        <v>6.32</v>
+      </c>
+      <c r="AD500">
+        <v>2.8</v>
+      </c>
+      <c r="AE500">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF500">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG500">
+        <v>1.04</v>
+      </c>
+      <c r="AH500">
+        <v>71.72</v>
+      </c>
+      <c r="AI500">
+        <v>0.718</v>
+      </c>
+      <c r="AJ500">
+        <v>0</v>
+      </c>
+      <c r="AK500">
+        <v>47899</v>
+      </c>
+      <c r="AL500">
+        <v>864</v>
+      </c>
+      <c r="AM500">
+        <v>20123</v>
+      </c>
+      <c r="AN500">
+        <v>26912</v>
+      </c>
+      <c r="AO500">
+        <v>2615529</v>
+      </c>
+      <c r="AP500">
+        <v>68219</v>
+      </c>
+      <c r="AQ500">
+        <v>2139601</v>
+      </c>
+      <c r="AR500">
+        <v>407709</v>
+      </c>
+      <c r="AS500">
+        <v>0.01803795486335832</v>
+      </c>
+      <c r="AT500">
+        <v>0.3005823512431442</v>
+      </c>
+    </row>
+    <row r="501" spans="1:46">
+      <c r="A501" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B501" t="s">
+        <v>47</v>
+      </c>
+      <c r="C501" t="s">
+        <v>48</v>
+      </c>
+      <c r="D501" s="2">
+        <v>44391</v>
+      </c>
+      <c r="E501">
+        <v>172859</v>
+      </c>
+      <c r="F501">
+        <v>15102724</v>
+      </c>
+      <c r="G501">
+        <v>55.215</v>
+      </c>
+      <c r="H501">
+        <v>0.632</v>
+      </c>
+      <c r="I501">
+        <v>143831</v>
+      </c>
+      <c r="J501">
+        <v>0.526</v>
+      </c>
+      <c r="K501">
+        <v>54520987</v>
+      </c>
+      <c r="L501">
+        <v>38909433</v>
+      </c>
+      <c r="M501">
+        <v>15611554</v>
+      </c>
+      <c r="N501">
+        <v>3087420</v>
+      </c>
+      <c r="O501">
+        <v>862482</v>
+      </c>
+      <c r="P501">
+        <v>19.93</v>
+      </c>
+      <c r="Q501">
+        <v>14.23</v>
+      </c>
+      <c r="R501">
+        <v>5.71</v>
+      </c>
+      <c r="S501">
+        <v>3153</v>
+      </c>
+      <c r="T501">
+        <v>68.98</v>
+      </c>
+      <c r="U501">
+        <v>273523621</v>
+      </c>
+      <c r="V501">
+        <v>145.725</v>
+      </c>
+      <c r="W501">
+        <v>29.3</v>
+      </c>
+      <c r="X501">
+        <v>5.319</v>
+      </c>
+      <c r="Y501">
+        <v>3.053</v>
+      </c>
+      <c r="Z501">
+        <v>11188.744</v>
+      </c>
+      <c r="AA501">
+        <v>5.7</v>
+      </c>
+      <c r="AB501">
+        <v>342.864</v>
+      </c>
+      <c r="AC501">
+        <v>6.32</v>
+      </c>
+      <c r="AD501">
+        <v>2.8</v>
+      </c>
+      <c r="AE501">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF501">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG501">
+        <v>1.04</v>
+      </c>
+      <c r="AH501">
+        <v>71.72</v>
+      </c>
+      <c r="AI501">
+        <v>0.718</v>
+      </c>
+      <c r="AJ501">
+        <v>0</v>
+      </c>
+      <c r="AK501">
+        <v>54517</v>
+      </c>
+      <c r="AL501">
+        <v>991</v>
+      </c>
+      <c r="AM501">
+        <v>17762</v>
+      </c>
+      <c r="AN501">
+        <v>35764</v>
+      </c>
+      <c r="AO501">
+        <v>2670046</v>
+      </c>
+      <c r="AP501">
+        <v>69210</v>
+      </c>
+      <c r="AQ501">
+        <v>2157363</v>
+      </c>
+      <c r="AR501">
+        <v>443473</v>
+      </c>
+      <c r="AS501">
+        <v>0.0181778160940624</v>
+      </c>
+      <c r="AT501">
+        <v>0.315384214880336</v>
+      </c>
+    </row>
+    <row r="502" spans="1:46">
+      <c r="A502" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B502" t="s">
+        <v>47</v>
+      </c>
+      <c r="C502" t="s">
+        <v>48</v>
+      </c>
+      <c r="D502" s="2">
+        <v>44392</v>
+      </c>
+      <c r="E502">
+        <v>185321</v>
+      </c>
+      <c r="F502">
+        <v>15288045</v>
+      </c>
+      <c r="G502">
+        <v>55.893</v>
+      </c>
+      <c r="H502">
+        <v>0.678</v>
+      </c>
+      <c r="I502">
+        <v>150886</v>
+      </c>
+      <c r="J502">
+        <v>0.552</v>
+      </c>
+      <c r="K502">
+        <v>55819781</v>
+      </c>
+      <c r="L502">
+        <v>39943004</v>
+      </c>
+      <c r="M502">
+        <v>15876777</v>
+      </c>
+      <c r="N502">
+        <v>1298794</v>
+      </c>
+      <c r="O502">
+        <v>905228</v>
+      </c>
+      <c r="P502">
+        <v>20.41</v>
+      </c>
+      <c r="Q502">
+        <v>14.6</v>
+      </c>
+      <c r="R502">
+        <v>5.8</v>
+      </c>
+      <c r="S502">
+        <v>3310</v>
+      </c>
+      <c r="T502">
+        <v>68.98</v>
+      </c>
+      <c r="U502">
+        <v>273523621</v>
+      </c>
+      <c r="V502">
+        <v>145.725</v>
+      </c>
+      <c r="W502">
+        <v>29.3</v>
+      </c>
+      <c r="X502">
+        <v>5.319</v>
+      </c>
+      <c r="Y502">
+        <v>3.053</v>
+      </c>
+      <c r="Z502">
+        <v>11188.744</v>
+      </c>
+      <c r="AA502">
+        <v>5.7</v>
+      </c>
+      <c r="AB502">
+        <v>342.864</v>
+      </c>
+      <c r="AC502">
+        <v>6.32</v>
+      </c>
+      <c r="AD502">
+        <v>2.8</v>
+      </c>
+      <c r="AE502">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF502">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG502">
+        <v>1.04</v>
+      </c>
+      <c r="AH502">
+        <v>71.72</v>
+      </c>
+      <c r="AI502">
+        <v>0.718</v>
+      </c>
+      <c r="AJ502">
+        <v>0</v>
+      </c>
+      <c r="AK502">
+        <v>56757</v>
+      </c>
+      <c r="AL502">
+        <v>982</v>
+      </c>
+      <c r="AM502">
+        <v>19049</v>
+      </c>
+      <c r="AN502">
+        <v>36726</v>
+      </c>
+      <c r="AO502">
+        <v>2726803</v>
+      </c>
+      <c r="AP502">
+        <v>70192</v>
+      </c>
+      <c r="AQ502">
+        <v>2176412</v>
+      </c>
+      <c r="AR502">
+        <v>480199</v>
+      </c>
+      <c r="AS502">
+        <v>0.01730183061120214</v>
+      </c>
+      <c r="AT502">
+        <v>0.306263186578963</v>
+      </c>
+    </row>
+    <row r="503" spans="1:46">
+      <c r="A503" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B503" t="s">
+        <v>47</v>
+      </c>
+      <c r="C503" t="s">
+        <v>48</v>
+      </c>
+      <c r="D503" s="2">
+        <v>44393</v>
+      </c>
+      <c r="E503">
+        <v>179216</v>
+      </c>
+      <c r="F503">
+        <v>15467261</v>
+      </c>
+      <c r="G503">
+        <v>56.548</v>
+      </c>
+      <c r="H503">
+        <v>0.655</v>
+      </c>
+      <c r="I503">
+        <v>156202</v>
+      </c>
+      <c r="J503">
+        <v>0.571</v>
+      </c>
+      <c r="K503">
+        <v>57011439</v>
+      </c>
+      <c r="L503">
+        <v>40912440</v>
+      </c>
+      <c r="M503">
+        <v>16098999</v>
+      </c>
+      <c r="N503">
+        <v>1191658</v>
+      </c>
+      <c r="O503">
+        <v>909614</v>
+      </c>
+      <c r="P503">
+        <v>20.84</v>
+      </c>
+      <c r="Q503">
+        <v>14.96</v>
+      </c>
+      <c r="R503">
+        <v>5.89</v>
+      </c>
+      <c r="S503">
+        <v>3326</v>
+      </c>
+      <c r="T503">
+        <v>68.98</v>
+      </c>
+      <c r="U503">
+        <v>273523621</v>
+      </c>
+      <c r="V503">
+        <v>145.725</v>
+      </c>
+      <c r="W503">
+        <v>29.3</v>
+      </c>
+      <c r="X503">
+        <v>5.319</v>
+      </c>
+      <c r="Y503">
+        <v>3.053</v>
+      </c>
+      <c r="Z503">
+        <v>11188.744</v>
+      </c>
+      <c r="AA503">
+        <v>5.7</v>
+      </c>
+      <c r="AB503">
+        <v>342.864</v>
+      </c>
+      <c r="AC503">
+        <v>6.32</v>
+      </c>
+      <c r="AD503">
+        <v>2.8</v>
+      </c>
+      <c r="AE503">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF503">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG503">
+        <v>1.04</v>
+      </c>
+      <c r="AH503">
+        <v>71.72</v>
+      </c>
+      <c r="AI503">
+        <v>0.718</v>
+      </c>
+      <c r="AJ503">
+        <v>0</v>
+      </c>
+      <c r="AK503">
+        <v>54000</v>
+      </c>
+      <c r="AL503">
+        <v>1205</v>
+      </c>
+      <c r="AM503">
+        <v>28079</v>
+      </c>
+      <c r="AN503">
+        <v>24716</v>
+      </c>
+      <c r="AO503">
+        <v>2780803</v>
+      </c>
+      <c r="AP503">
+        <v>71397</v>
+      </c>
+      <c r="AQ503">
+        <v>2204491</v>
+      </c>
+      <c r="AR503">
+        <v>504915</v>
+      </c>
+      <c r="AS503">
+        <v>0.02231481481481482</v>
+      </c>
+      <c r="AT503">
+        <v>0.3013123828229622</v>
+      </c>
+    </row>
+    <row r="504" spans="1:46">
+      <c r="A504" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B504" t="s">
+        <v>47</v>
+      </c>
+      <c r="C504" t="s">
+        <v>48</v>
+      </c>
+      <c r="D504" s="2">
+        <v>44394</v>
+      </c>
+      <c r="E504">
+        <v>188551</v>
+      </c>
+      <c r="F504">
+        <v>15655812</v>
+      </c>
+      <c r="G504">
+        <v>57.238</v>
+      </c>
+      <c r="H504">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="I504">
+        <v>162382</v>
+      </c>
+      <c r="J504">
+        <v>0.594</v>
+      </c>
+      <c r="K504">
+        <v>57486482</v>
+      </c>
+      <c r="L504">
+        <v>41268627</v>
+      </c>
+      <c r="M504">
+        <v>16217855</v>
+      </c>
+      <c r="N504">
+        <v>475043</v>
+      </c>
+      <c r="O504">
+        <v>903439</v>
+      </c>
+      <c r="P504">
+        <v>21.02</v>
+      </c>
+      <c r="Q504">
+        <v>15.09</v>
+      </c>
+      <c r="R504">
+        <v>5.93</v>
+      </c>
+      <c r="S504">
+        <v>3303</v>
+      </c>
+      <c r="T504">
+        <v>68.98</v>
+      </c>
+      <c r="U504">
+        <v>273523621</v>
+      </c>
+      <c r="V504">
+        <v>145.725</v>
+      </c>
+      <c r="W504">
+        <v>29.3</v>
+      </c>
+      <c r="X504">
+        <v>5.319</v>
+      </c>
+      <c r="Y504">
+        <v>3.053</v>
+      </c>
+      <c r="Z504">
+        <v>11188.744</v>
+      </c>
+      <c r="AA504">
+        <v>5.7</v>
+      </c>
+      <c r="AB504">
+        <v>342.864</v>
+      </c>
+      <c r="AC504">
+        <v>6.32</v>
+      </c>
+      <c r="AD504">
+        <v>2.8</v>
+      </c>
+      <c r="AE504">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF504">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG504">
+        <v>1.04</v>
+      </c>
+      <c r="AH504">
+        <v>71.72</v>
+      </c>
+      <c r="AI504">
+        <v>0.718</v>
+      </c>
+      <c r="AJ504">
+        <v>0</v>
+      </c>
+      <c r="AK504">
+        <v>51952</v>
+      </c>
+      <c r="AL504">
+        <v>1092</v>
+      </c>
+      <c r="AM504">
+        <v>27903</v>
+      </c>
+      <c r="AN504">
+        <v>22957</v>
+      </c>
+      <c r="AO504">
+        <v>2832755</v>
+      </c>
+      <c r="AP504">
+        <v>72489</v>
+      </c>
+      <c r="AQ504">
+        <v>2232394</v>
+      </c>
+      <c r="AR504">
+        <v>527872</v>
+      </c>
+      <c r="AS504">
+        <v>0.02101940252540807</v>
+      </c>
+      <c r="AT504">
+        <v>0.275532879698331</v>
+      </c>
+    </row>
+    <row r="505" spans="1:46">
+      <c r="A505" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B505" t="s">
+        <v>47</v>
+      </c>
+      <c r="C505" t="s">
+        <v>48</v>
+      </c>
+      <c r="D505" s="2">
+        <v>44395</v>
+      </c>
+      <c r="E505">
+        <v>138046</v>
+      </c>
+      <c r="F505">
+        <v>15793858</v>
+      </c>
+      <c r="G505">
+        <v>57.742</v>
+      </c>
+      <c r="H505">
+        <v>0.505</v>
+      </c>
+      <c r="I505">
+        <v>163809</v>
+      </c>
+      <c r="J505">
+        <v>0.599</v>
+      </c>
+      <c r="K505">
+        <v>57947614</v>
+      </c>
+      <c r="L505">
+        <v>41673464</v>
+      </c>
+      <c r="M505">
+        <v>16274150</v>
+      </c>
+      <c r="N505">
+        <v>461132</v>
+      </c>
+      <c r="O505">
+        <v>952750</v>
+      </c>
+      <c r="P505">
+        <v>21.19</v>
+      </c>
+      <c r="Q505">
+        <v>15.24</v>
+      </c>
+      <c r="R505">
+        <v>5.95</v>
+      </c>
+      <c r="S505">
+        <v>3483</v>
+      </c>
+      <c r="T505">
+        <v>68.98</v>
+      </c>
+      <c r="U505">
+        <v>273523621</v>
+      </c>
+      <c r="V505">
+        <v>145.725</v>
+      </c>
+      <c r="W505">
+        <v>29.3</v>
+      </c>
+      <c r="X505">
+        <v>5.319</v>
+      </c>
+      <c r="Y505">
+        <v>3.053</v>
+      </c>
+      <c r="Z505">
+        <v>11188.744</v>
+      </c>
+      <c r="AA505">
+        <v>5.7</v>
+      </c>
+      <c r="AB505">
+        <v>342.864</v>
+      </c>
+      <c r="AC505">
+        <v>6.32</v>
+      </c>
+      <c r="AD505">
+        <v>2.8</v>
+      </c>
+      <c r="AE505">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF505">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG505">
+        <v>1.04</v>
+      </c>
+      <c r="AH505">
+        <v>71.72</v>
+      </c>
+      <c r="AI505">
+        <v>0.718</v>
+      </c>
+      <c r="AJ505">
+        <v>0</v>
+      </c>
+      <c r="AK505">
+        <v>44721</v>
+      </c>
+      <c r="AL505">
+        <v>1093</v>
+      </c>
+      <c r="AM505">
+        <v>29264</v>
+      </c>
+      <c r="AN505">
+        <v>14364</v>
+      </c>
+      <c r="AO505">
+        <v>2877476</v>
+      </c>
+      <c r="AP505">
+        <v>73582</v>
+      </c>
+      <c r="AQ505">
+        <v>2261658</v>
+      </c>
+      <c r="AR505">
+        <v>542236</v>
+      </c>
+      <c r="AS505">
+        <v>0.02444041948972519</v>
+      </c>
+      <c r="AT505">
+        <v>0.3239572316474219</v>
+      </c>
+    </row>
+    <row r="506" spans="1:46">
+      <c r="A506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B506" t="s">
+        <v>47</v>
+      </c>
+      <c r="C506" t="s">
+        <v>48</v>
+      </c>
+      <c r="D506" s="2">
+        <v>44396</v>
+      </c>
+      <c r="E506">
+        <v>127590</v>
+      </c>
+      <c r="F506">
+        <v>15921448</v>
+      </c>
+      <c r="G506">
+        <v>58.209</v>
+      </c>
+      <c r="H506">
+        <v>0.466</v>
+      </c>
+      <c r="I506">
+        <v>164420</v>
+      </c>
+      <c r="J506">
+        <v>0.601</v>
+      </c>
+      <c r="K506">
+        <v>58495882</v>
+      </c>
+      <c r="L506">
+        <v>42095531</v>
+      </c>
+      <c r="M506">
+        <v>16400351</v>
+      </c>
+      <c r="N506">
+        <v>548268</v>
+      </c>
+      <c r="O506">
+        <v>1013032</v>
+      </c>
+      <c r="P506">
+        <v>21.39</v>
+      </c>
+      <c r="Q506">
+        <v>15.39</v>
+      </c>
+      <c r="R506">
+        <v>6</v>
+      </c>
+      <c r="S506">
+        <v>3704</v>
+      </c>
+      <c r="T506">
+        <v>68.98</v>
+      </c>
+      <c r="U506">
+        <v>273523621</v>
+      </c>
+      <c r="V506">
+        <v>145.725</v>
+      </c>
+      <c r="W506">
+        <v>29.3</v>
+      </c>
+      <c r="X506">
+        <v>5.319</v>
+      </c>
+      <c r="Y506">
+        <v>3.053</v>
+      </c>
+      <c r="Z506">
+        <v>11188.744</v>
+      </c>
+      <c r="AA506">
+        <v>5.7</v>
+      </c>
+      <c r="AB506">
+        <v>342.864</v>
+      </c>
+      <c r="AC506">
+        <v>6.32</v>
+      </c>
+      <c r="AD506">
+        <v>2.8</v>
+      </c>
+      <c r="AE506">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF506">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG506">
+        <v>1.04</v>
+      </c>
+      <c r="AH506">
+        <v>71.72</v>
+      </c>
+      <c r="AI506">
+        <v>0.718</v>
+      </c>
+      <c r="AJ506">
+        <v>0</v>
+      </c>
+      <c r="AK506">
+        <v>34257</v>
+      </c>
+      <c r="AL506">
+        <v>1338</v>
+      </c>
+      <c r="AM506">
+        <v>32217</v>
+      </c>
+      <c r="AN506">
+        <v>702</v>
+      </c>
+      <c r="AO506">
+        <v>2911733</v>
+      </c>
+      <c r="AP506">
+        <v>74920</v>
+      </c>
+      <c r="AQ506">
+        <v>2293875</v>
+      </c>
+      <c r="AR506">
+        <v>542938</v>
+      </c>
+      <c r="AS506">
+        <v>0.03905771083282249</v>
+      </c>
+      <c r="AT506">
+        <v>0.2684928285915824</v>
+      </c>
+    </row>
+    <row r="507" spans="1:46">
+      <c r="A507" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B507" t="s">
+        <v>47</v>
+      </c>
+      <c r="C507" t="s">
+        <v>48</v>
+      </c>
+      <c r="D507" s="2">
+        <v>44397</v>
+      </c>
+      <c r="E507">
+        <v>127590</v>
+      </c>
+      <c r="F507">
+        <v>15921448</v>
+      </c>
+      <c r="G507">
+        <v>58.209</v>
+      </c>
+      <c r="H507">
+        <v>0.466</v>
+      </c>
+      <c r="I507">
+        <v>163541</v>
+      </c>
+      <c r="J507">
+        <v>0.598</v>
+      </c>
+      <c r="K507">
+        <v>58814584</v>
+      </c>
+      <c r="L507">
+        <v>42360779</v>
+      </c>
+      <c r="M507">
+        <v>16453805</v>
+      </c>
+      <c r="N507">
+        <v>318702</v>
+      </c>
+      <c r="O507">
+        <v>1054431</v>
+      </c>
+      <c r="P507">
+        <v>21.5</v>
+      </c>
+      <c r="Q507">
+        <v>15.49</v>
+      </c>
+      <c r="R507">
+        <v>6.02</v>
+      </c>
+      <c r="S507">
+        <v>3855</v>
+      </c>
+      <c r="T507">
+        <v>68.98</v>
+      </c>
+      <c r="U507">
+        <v>273523621</v>
+      </c>
+      <c r="V507">
+        <v>145.725</v>
+      </c>
+      <c r="W507">
+        <v>29.3</v>
+      </c>
+      <c r="X507">
+        <v>5.319</v>
+      </c>
+      <c r="Y507">
+        <v>3.053</v>
+      </c>
+      <c r="Z507">
+        <v>11188.744</v>
+      </c>
+      <c r="AA507">
+        <v>5.7</v>
+      </c>
+      <c r="AB507">
+        <v>342.864</v>
+      </c>
+      <c r="AC507">
+        <v>6.32</v>
+      </c>
+      <c r="AD507">
+        <v>2.8</v>
+      </c>
+      <c r="AE507">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF507">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG507">
+        <v>1.04</v>
+      </c>
+      <c r="AH507">
+        <v>71.72</v>
+      </c>
+      <c r="AI507">
+        <v>0.718</v>
+      </c>
+      <c r="AJ507">
+        <v>0</v>
+      </c>
+      <c r="AK507">
+        <v>38325</v>
+      </c>
+      <c r="AL507">
+        <v>1280</v>
+      </c>
+      <c r="AM507">
+        <v>29791</v>
+      </c>
+      <c r="AN507">
+        <v>7254</v>
+      </c>
+      <c r="AO507">
+        <v>2950058</v>
+      </c>
+      <c r="AP507">
+        <v>76200</v>
+      </c>
+      <c r="AQ507">
+        <v>2323666</v>
+      </c>
+      <c r="AR507">
+        <v>550192</v>
+      </c>
+      <c r="AS507">
+        <v>0.03339856490541422</v>
+      </c>
+      <c r="AT507">
+        <v>0.3003762050317423</v>
+      </c>
+    </row>
+    <row r="508" spans="1:46">
+      <c r="A508" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B508" t="s">
+        <v>47</v>
+      </c>
+      <c r="C508" t="s">
+        <v>48</v>
+      </c>
+      <c r="D508" s="2">
+        <v>44398</v>
+      </c>
+      <c r="E508">
+        <v>127590</v>
+      </c>
+      <c r="F508">
+        <v>15921448</v>
+      </c>
+      <c r="G508">
+        <v>58.209</v>
+      </c>
+      <c r="H508">
+        <v>0.466</v>
+      </c>
+      <c r="I508">
+        <v>160733</v>
+      </c>
+      <c r="J508">
+        <v>0.588</v>
+      </c>
+      <c r="K508">
+        <v>59218277</v>
+      </c>
+      <c r="L508">
+        <v>42611602</v>
+      </c>
+      <c r="M508">
+        <v>16606675</v>
+      </c>
+      <c r="N508">
+        <v>403693</v>
+      </c>
+      <c r="O508">
+        <v>671041</v>
+      </c>
+      <c r="P508">
+        <v>21.65</v>
+      </c>
+      <c r="Q508">
+        <v>15.58</v>
+      </c>
+      <c r="R508">
+        <v>6.07</v>
+      </c>
+      <c r="S508">
+        <v>2453</v>
+      </c>
+      <c r="T508">
+        <v>68.98</v>
+      </c>
+      <c r="U508">
+        <v>273523621</v>
+      </c>
+      <c r="V508">
+        <v>145.725</v>
+      </c>
+      <c r="W508">
+        <v>29.3</v>
+      </c>
+      <c r="X508">
+        <v>5.319</v>
+      </c>
+      <c r="Y508">
+        <v>3.053</v>
+      </c>
+      <c r="Z508">
+        <v>11188.744</v>
+      </c>
+      <c r="AA508">
+        <v>5.7</v>
+      </c>
+      <c r="AB508">
+        <v>342.864</v>
+      </c>
+      <c r="AC508">
+        <v>6.32</v>
+      </c>
+      <c r="AD508">
+        <v>2.8</v>
+      </c>
+      <c r="AE508">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF508">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG508">
+        <v>1.04</v>
+      </c>
+      <c r="AH508">
+        <v>71.72</v>
+      </c>
+      <c r="AI508">
+        <v>0.718</v>
+      </c>
+      <c r="AJ508">
+        <v>0</v>
+      </c>
+      <c r="AK508">
+        <v>33772</v>
+      </c>
+      <c r="AL508">
+        <v>1383</v>
+      </c>
+      <c r="AM508">
+        <v>32887</v>
+      </c>
+      <c r="AN508">
+        <v>-498</v>
+      </c>
+      <c r="AO508">
+        <v>2983830</v>
+      </c>
+      <c r="AP508">
+        <v>77583</v>
+      </c>
+      <c r="AQ508">
+        <v>2356553</v>
+      </c>
+      <c r="AR508">
+        <v>549694</v>
+      </c>
+      <c r="AS508">
+        <v>0.04095108373800781</v>
+      </c>
+      <c r="AT508">
+        <v>0.2646915902500196</v>
+      </c>
+    </row>
+    <row r="509" spans="1:46">
+      <c r="A509" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B509" t="s">
+        <v>47</v>
+      </c>
+      <c r="C509" t="s">
+        <v>48</v>
+      </c>
+      <c r="D509" s="2">
+        <v>44399</v>
+      </c>
+      <c r="E509">
+        <v>127590</v>
+      </c>
+      <c r="F509">
+        <v>16381056</v>
+      </c>
+      <c r="G509">
+        <v>59.889</v>
+      </c>
+      <c r="H509">
+        <v>0.466</v>
+      </c>
+      <c r="I509">
+        <v>156144</v>
+      </c>
+      <c r="J509">
+        <v>0.571</v>
+      </c>
+      <c r="K509">
+        <v>60484261</v>
+      </c>
+      <c r="L509">
+        <v>43471431</v>
+      </c>
+      <c r="M509">
+        <v>17012830</v>
+      </c>
+      <c r="N509">
+        <v>1265984</v>
+      </c>
+      <c r="O509">
+        <v>666354</v>
+      </c>
+      <c r="P509">
+        <v>22.11</v>
+      </c>
+      <c r="Q509">
+        <v>15.89</v>
+      </c>
+      <c r="R509">
+        <v>6.22</v>
+      </c>
+      <c r="S509">
+        <v>2436</v>
+      </c>
+      <c r="T509">
+        <v>68.98</v>
+      </c>
+      <c r="U509">
+        <v>273523621</v>
+      </c>
+      <c r="V509">
+        <v>145.725</v>
+      </c>
+      <c r="W509">
+        <v>29.3</v>
+      </c>
+      <c r="X509">
+        <v>5.319</v>
+      </c>
+      <c r="Y509">
+        <v>3.053</v>
+      </c>
+      <c r="Z509">
+        <v>11188.744</v>
+      </c>
+      <c r="AA509">
+        <v>5.7</v>
+      </c>
+      <c r="AB509">
+        <v>342.864</v>
+      </c>
+      <c r="AC509">
+        <v>6.32</v>
+      </c>
+      <c r="AD509">
+        <v>2.8</v>
+      </c>
+      <c r="AE509">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF509">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG509">
+        <v>1.04</v>
+      </c>
+      <c r="AH509">
+        <v>71.72</v>
+      </c>
+      <c r="AI509">
+        <v>0.718</v>
+      </c>
+      <c r="AJ509">
+        <v>0</v>
+      </c>
+      <c r="AK509">
+        <v>49509</v>
+      </c>
+      <c r="AL509">
+        <v>1449</v>
+      </c>
+      <c r="AM509">
+        <v>36370</v>
+      </c>
+      <c r="AN509">
+        <v>11690</v>
+      </c>
+      <c r="AO509">
+        <v>3033339</v>
+      </c>
+      <c r="AP509">
+        <v>79032</v>
+      </c>
+      <c r="AQ509">
+        <v>2392923</v>
+      </c>
+      <c r="AR509">
+        <v>561384</v>
+      </c>
+      <c r="AS509">
+        <v>0.02926740592619524</v>
+      </c>
+      <c r="AT509">
+        <v>0.3880319774276981</v>
+      </c>
+    </row>
+    <row r="510" spans="1:46">
+      <c r="A510" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B510" t="s">
+        <v>47</v>
+      </c>
+      <c r="C510" t="s">
+        <v>48</v>
+      </c>
+      <c r="D510" s="2">
+        <v>44400</v>
+      </c>
+      <c r="E510">
+        <v>127590</v>
+      </c>
+      <c r="F510">
+        <v>16381056</v>
+      </c>
+      <c r="G510">
+        <v>59.889</v>
+      </c>
+      <c r="H510">
+        <v>0.466</v>
+      </c>
+      <c r="I510">
+        <v>152962</v>
+      </c>
+      <c r="J510">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="K510">
+        <v>61185996</v>
+      </c>
+      <c r="L510">
+        <v>43932287</v>
+      </c>
+      <c r="M510">
+        <v>17253709</v>
+      </c>
+      <c r="N510">
+        <v>701735</v>
+      </c>
+      <c r="O510">
+        <v>596365</v>
+      </c>
+      <c r="P510">
+        <v>22.37</v>
+      </c>
+      <c r="Q510">
+        <v>16.06</v>
+      </c>
+      <c r="R510">
+        <v>6.31</v>
+      </c>
+      <c r="S510">
+        <v>2180</v>
+      </c>
+      <c r="T510">
+        <v>68.98</v>
+      </c>
+      <c r="U510">
+        <v>273523621</v>
+      </c>
+      <c r="V510">
+        <v>145.725</v>
+      </c>
+      <c r="W510">
+        <v>29.3</v>
+      </c>
+      <c r="X510">
+        <v>5.319</v>
+      </c>
+      <c r="Y510">
+        <v>3.053</v>
+      </c>
+      <c r="Z510">
+        <v>11188.744</v>
+      </c>
+      <c r="AA510">
+        <v>5.7</v>
+      </c>
+      <c r="AB510">
+        <v>342.864</v>
+      </c>
+      <c r="AC510">
+        <v>6.32</v>
+      </c>
+      <c r="AD510">
+        <v>2.8</v>
+      </c>
+      <c r="AE510">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF510">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG510">
+        <v>1.04</v>
+      </c>
+      <c r="AH510">
+        <v>71.72</v>
+      </c>
+      <c r="AI510">
+        <v>0.718</v>
+      </c>
+      <c r="AJ510">
+        <v>0</v>
+      </c>
+      <c r="AK510">
+        <v>49071</v>
+      </c>
+      <c r="AL510">
+        <v>1566</v>
+      </c>
+      <c r="AM510">
+        <v>38988</v>
+      </c>
+      <c r="AN510">
+        <v>8517</v>
+      </c>
+      <c r="AO510">
+        <v>3082410</v>
+      </c>
+      <c r="AP510">
+        <v>80598</v>
+      </c>
+      <c r="AQ510">
+        <v>2431911</v>
+      </c>
+      <c r="AR510">
+        <v>569901</v>
+      </c>
+      <c r="AS510">
+        <v>0.03191294247111329</v>
+      </c>
+      <c r="AT510">
+        <v>0.3845991065130496</v>
+      </c>
+    </row>
+    <row r="511" spans="1:46">
+      <c r="A511" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B511" t="s">
+        <v>47</v>
+      </c>
+      <c r="C511" t="s">
+        <v>48</v>
+      </c>
+      <c r="D511" s="2">
+        <v>44401</v>
+      </c>
+      <c r="E511">
+        <v>127590</v>
+      </c>
+      <c r="F511">
+        <v>16381056</v>
+      </c>
+      <c r="G511">
+        <v>59.889</v>
+      </c>
+      <c r="H511">
+        <v>0.466</v>
+      </c>
+      <c r="I511">
+        <v>148445</v>
+      </c>
+      <c r="J511">
+        <v>0.543</v>
+      </c>
+      <c r="K511">
+        <v>61583922</v>
+      </c>
+      <c r="L511">
+        <v>44107926</v>
+      </c>
+      <c r="M511">
+        <v>17475996</v>
+      </c>
+      <c r="N511">
+        <v>397926</v>
+      </c>
+      <c r="O511">
+        <v>585349</v>
+      </c>
+      <c r="P511">
+        <v>22.52</v>
+      </c>
+      <c r="Q511">
+        <v>16.13</v>
+      </c>
+      <c r="R511">
+        <v>6.39</v>
+      </c>
+      <c r="S511">
+        <v>2140</v>
+      </c>
+      <c r="T511">
+        <v>68.98</v>
+      </c>
+      <c r="U511">
+        <v>273523621</v>
+      </c>
+      <c r="V511">
+        <v>145.725</v>
+      </c>
+      <c r="W511">
+        <v>29.3</v>
+      </c>
+      <c r="X511">
+        <v>5.319</v>
+      </c>
+      <c r="Y511">
+        <v>3.053</v>
+      </c>
+      <c r="Z511">
+        <v>11188.744</v>
+      </c>
+      <c r="AA511">
+        <v>5.7</v>
+      </c>
+      <c r="AB511">
+        <v>342.864</v>
+      </c>
+      <c r="AC511">
+        <v>6.32</v>
+      </c>
+      <c r="AD511">
+        <v>2.8</v>
+      </c>
+      <c r="AE511">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF511">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG511">
+        <v>1.04</v>
+      </c>
+      <c r="AH511">
+        <v>71.72</v>
+      </c>
+      <c r="AI511">
+        <v>0.718</v>
+      </c>
+      <c r="AJ511">
+        <v>0</v>
+      </c>
+      <c r="AK511">
+        <v>45416</v>
+      </c>
+      <c r="AL511">
+        <v>1415</v>
+      </c>
+      <c r="AM511">
+        <v>39767</v>
+      </c>
+      <c r="AN511">
+        <v>4234</v>
+      </c>
+      <c r="AO511">
+        <v>3127826</v>
+      </c>
+      <c r="AP511">
+        <v>82013</v>
+      </c>
+      <c r="AQ511">
+        <v>2471678</v>
+      </c>
+      <c r="AR511">
+        <v>574135</v>
+      </c>
+      <c r="AS511">
+        <v>0.03115642064470671</v>
+      </c>
+      <c r="AT511">
+        <v>0.3559526608668391</v>
+      </c>
+    </row>
+    <row r="512" spans="1:46">
+      <c r="A512" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B512" t="s">
+        <v>47</v>
+      </c>
+      <c r="C512" t="s">
+        <v>48</v>
+      </c>
+      <c r="D512" s="2">
+        <v>44402</v>
+      </c>
+      <c r="E512">
+        <v>127590</v>
+      </c>
+      <c r="F512">
+        <v>16381056</v>
+      </c>
+      <c r="G512">
+        <v>59.889</v>
+      </c>
+      <c r="H512">
+        <v>0.466</v>
+      </c>
+      <c r="I512">
+        <v>151144</v>
+      </c>
+      <c r="J512">
+        <v>0.553</v>
+      </c>
+      <c r="K512">
+        <v>62376478</v>
+      </c>
+      <c r="L512">
+        <v>44469974</v>
+      </c>
+      <c r="M512">
+        <v>17906504</v>
+      </c>
+      <c r="N512">
+        <v>792556</v>
+      </c>
+      <c r="O512">
+        <v>632695</v>
+      </c>
+      <c r="P512">
+        <v>22.8</v>
+      </c>
+      <c r="Q512">
+        <v>16.26</v>
+      </c>
+      <c r="R512">
+        <v>6.55</v>
+      </c>
+      <c r="S512">
+        <v>2313</v>
+      </c>
+      <c r="T512">
+        <v>68.98</v>
+      </c>
+      <c r="U512">
+        <v>273523621</v>
+      </c>
+      <c r="V512">
+        <v>145.725</v>
+      </c>
+      <c r="W512">
+        <v>29.3</v>
+      </c>
+      <c r="X512">
+        <v>5.319</v>
+      </c>
+      <c r="Y512">
+        <v>3.053</v>
+      </c>
+      <c r="Z512">
+        <v>11188.744</v>
+      </c>
+      <c r="AA512">
+        <v>5.7</v>
+      </c>
+      <c r="AB512">
+        <v>342.864</v>
+      </c>
+      <c r="AC512">
+        <v>6.32</v>
+      </c>
+      <c r="AD512">
+        <v>2.8</v>
+      </c>
+      <c r="AE512">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF512">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG512">
+        <v>1.04</v>
+      </c>
+      <c r="AH512">
+        <v>71.72</v>
+      </c>
+      <c r="AI512">
+        <v>0.718</v>
+      </c>
+      <c r="AJ512">
+        <v>0</v>
+      </c>
+      <c r="AK512">
+        <v>38679</v>
+      </c>
+      <c r="AL512">
+        <v>1266</v>
+      </c>
+      <c r="AM512">
+        <v>37640</v>
+      </c>
+      <c r="AN512">
+        <v>-227</v>
+      </c>
+      <c r="AO512">
+        <v>3166505</v>
+      </c>
+      <c r="AP512">
+        <v>83279</v>
+      </c>
+      <c r="AQ512">
+        <v>2509318</v>
+      </c>
+      <c r="AR512">
+        <v>573908</v>
+      </c>
+      <c r="AS512">
+        <v>0.03273093926937098</v>
+      </c>
+      <c r="AT512">
+        <v>0.3031507171408417</v>
+      </c>
+    </row>
+    <row r="513" spans="1:46">
+      <c r="A513" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B513" t="s">
+        <v>47</v>
+      </c>
+      <c r="C513" t="s">
+        <v>48</v>
+      </c>
+      <c r="D513" s="2">
+        <v>44403</v>
+      </c>
+      <c r="E513">
+        <v>127590</v>
+      </c>
+      <c r="F513">
+        <v>17008799</v>
+      </c>
+      <c r="G513">
+        <v>62.184</v>
+      </c>
+      <c r="H513">
+        <v>0.466</v>
+      </c>
+      <c r="I513">
+        <v>155336</v>
+      </c>
+      <c r="J513">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="K513">
+        <v>62858198</v>
+      </c>
+      <c r="L513">
+        <v>44728320</v>
+      </c>
+      <c r="M513">
+        <v>18129878</v>
+      </c>
+      <c r="N513">
+        <v>481720</v>
+      </c>
+      <c r="O513">
+        <v>623188</v>
+      </c>
+      <c r="P513">
+        <v>22.98</v>
+      </c>
+      <c r="Q513">
+        <v>16.35</v>
+      </c>
+      <c r="R513">
+        <v>6.63</v>
+      </c>
+      <c r="S513">
+        <v>2278</v>
+      </c>
+      <c r="T513">
+        <v>68.98</v>
+      </c>
+      <c r="U513">
+        <v>273523621</v>
+      </c>
+      <c r="V513">
+        <v>145.725</v>
+      </c>
+      <c r="W513">
+        <v>29.3</v>
+      </c>
+      <c r="X513">
+        <v>5.319</v>
+      </c>
+      <c r="Y513">
+        <v>3.053</v>
+      </c>
+      <c r="Z513">
+        <v>11188.744</v>
+      </c>
+      <c r="AA513">
+        <v>5.7</v>
+      </c>
+      <c r="AB513">
+        <v>342.864</v>
+      </c>
+      <c r="AC513">
+        <v>6.32</v>
+      </c>
+      <c r="AD513">
+        <v>2.8</v>
+      </c>
+      <c r="AE513">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF513">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG513">
+        <v>1.04</v>
+      </c>
+      <c r="AH513">
+        <v>71.72</v>
+      </c>
+      <c r="AI513">
+        <v>0.718</v>
+      </c>
+      <c r="AJ513">
+        <v>0</v>
+      </c>
+      <c r="AK513">
+        <v>28228</v>
+      </c>
+      <c r="AL513">
+        <v>1487</v>
+      </c>
+      <c r="AM513">
+        <v>40374</v>
+      </c>
+      <c r="AN513">
+        <v>-13633</v>
+      </c>
+      <c r="AO513">
+        <v>3194733</v>
+      </c>
+      <c r="AP513">
+        <v>84766</v>
+      </c>
+      <c r="AQ513">
+        <v>2549692</v>
+      </c>
+      <c r="AR513">
+        <v>560275</v>
+      </c>
+      <c r="AS513">
+        <v>0.05267819186623211</v>
+      </c>
+      <c r="AT513">
+        <v>0.221239909083784</v>
+      </c>
+    </row>
+    <row r="514" spans="1:46">
+      <c r="A514" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B514" t="s">
+        <v>47</v>
+      </c>
+      <c r="C514" t="s">
+        <v>48</v>
+      </c>
+      <c r="D514" s="2">
+        <v>44404</v>
+      </c>
+      <c r="E514">
+        <v>127590</v>
+      </c>
+      <c r="F514">
+        <v>17008799</v>
+      </c>
+      <c r="G514">
+        <v>62.184</v>
+      </c>
+      <c r="H514">
+        <v>0.466</v>
+      </c>
+      <c r="I514">
+        <v>159549</v>
+      </c>
+      <c r="J514">
+        <v>0.583</v>
+      </c>
+      <c r="K514">
+        <v>63944892</v>
+      </c>
+      <c r="L514">
+        <v>45278549</v>
+      </c>
+      <c r="M514">
+        <v>18666343</v>
+      </c>
+      <c r="N514">
+        <v>1086694</v>
+      </c>
+      <c r="O514">
+        <v>732901</v>
+      </c>
+      <c r="P514">
+        <v>23.38</v>
+      </c>
+      <c r="Q514">
+        <v>16.55</v>
+      </c>
+      <c r="R514">
+        <v>6.82</v>
+      </c>
+      <c r="S514">
+        <v>2679</v>
+      </c>
+      <c r="T514">
+        <v>68.98</v>
+      </c>
+      <c r="U514">
+        <v>273523621</v>
+      </c>
+      <c r="V514">
+        <v>145.725</v>
+      </c>
+      <c r="W514">
+        <v>29.3</v>
+      </c>
+      <c r="X514">
+        <v>5.319</v>
+      </c>
+      <c r="Y514">
+        <v>3.053</v>
+      </c>
+      <c r="Z514">
+        <v>11188.744</v>
+      </c>
+      <c r="AA514">
+        <v>5.7</v>
+      </c>
+      <c r="AB514">
+        <v>342.864</v>
+      </c>
+      <c r="AC514">
+        <v>6.32</v>
+      </c>
+      <c r="AD514">
+        <v>2.8</v>
+      </c>
+      <c r="AE514">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF514">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG514">
+        <v>1.04</v>
+      </c>
+      <c r="AH514">
+        <v>71.72</v>
+      </c>
+      <c r="AI514">
+        <v>0.718</v>
+      </c>
+      <c r="AJ514">
+        <v>0</v>
+      </c>
+      <c r="AK514">
+        <v>45203</v>
+      </c>
+      <c r="AL514">
+        <v>2069</v>
+      </c>
+      <c r="AM514">
+        <v>47128</v>
+      </c>
+      <c r="AN514">
+        <v>-3994</v>
+      </c>
+      <c r="AO514">
+        <v>3239936</v>
+      </c>
+      <c r="AP514">
+        <v>86835</v>
+      </c>
+      <c r="AQ514">
+        <v>2596820</v>
+      </c>
+      <c r="AR514">
+        <v>556281</v>
+      </c>
+      <c r="AS514">
+        <v>0.04577129836515276</v>
+      </c>
+      <c r="AT514">
+        <v>0.3542832510384826</v>
+      </c>
+    </row>
+    <row r="515" spans="1:46">
+      <c r="A515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B515" t="s">
+        <v>47</v>
+      </c>
+      <c r="C515" t="s">
+        <v>48</v>
+      </c>
+      <c r="D515" s="2">
+        <v>44405</v>
+      </c>
+      <c r="E515">
+        <v>127590</v>
+      </c>
+      <c r="F515">
+        <v>17374182</v>
+      </c>
+      <c r="G515">
+        <v>63.52</v>
+      </c>
+      <c r="H515">
+        <v>0.466</v>
+      </c>
+      <c r="I515">
+        <v>163761</v>
+      </c>
+      <c r="J515">
+        <v>0.599</v>
+      </c>
+      <c r="K515">
+        <v>64838074</v>
+      </c>
+      <c r="L515">
+        <v>45734912</v>
+      </c>
+      <c r="M515">
+        <v>19103162</v>
+      </c>
+      <c r="N515">
+        <v>893182</v>
+      </c>
+      <c r="O515">
+        <v>802828</v>
+      </c>
+      <c r="P515">
+        <v>23.7</v>
+      </c>
+      <c r="Q515">
+        <v>16.72</v>
+      </c>
+      <c r="R515">
+        <v>6.98</v>
+      </c>
+      <c r="S515">
+        <v>2935</v>
+      </c>
+      <c r="T515">
+        <v>68.98</v>
+      </c>
+      <c r="U515">
+        <v>273523621</v>
+      </c>
+      <c r="V515">
+        <v>145.725</v>
+      </c>
+      <c r="W515">
+        <v>29.3</v>
+      </c>
+      <c r="X515">
+        <v>5.319</v>
+      </c>
+      <c r="Y515">
+        <v>3.053</v>
+      </c>
+      <c r="Z515">
+        <v>11188.744</v>
+      </c>
+      <c r="AA515">
+        <v>5.7</v>
+      </c>
+      <c r="AB515">
+        <v>342.864</v>
+      </c>
+      <c r="AC515">
+        <v>6.32</v>
+      </c>
+      <c r="AD515">
+        <v>2.8</v>
+      </c>
+      <c r="AE515">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF515">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG515">
+        <v>1.04</v>
+      </c>
+      <c r="AH515">
+        <v>71.72</v>
+      </c>
+      <c r="AI515">
+        <v>0.718</v>
+      </c>
+      <c r="AJ515">
+        <v>0</v>
+      </c>
+      <c r="AK515">
+        <v>47791</v>
+      </c>
+      <c r="AL515">
+        <v>1824</v>
+      </c>
+      <c r="AM515">
+        <v>43856</v>
+      </c>
+      <c r="AN515">
+        <v>2111</v>
+      </c>
+      <c r="AO515">
+        <v>3287727</v>
+      </c>
+      <c r="AP515">
+        <v>88659</v>
+      </c>
+      <c r="AQ515">
+        <v>2640676</v>
+      </c>
+      <c r="AR515">
+        <v>558392</v>
+      </c>
+      <c r="AS515">
+        <v>0.03816618191709736</v>
+      </c>
+      <c r="AT515">
+        <v>0.374566972333255</v>
+      </c>
+    </row>
+    <row r="516" spans="1:46">
+      <c r="A516" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B516" t="s">
+        <v>47</v>
+      </c>
+      <c r="C516" t="s">
+        <v>48</v>
+      </c>
+      <c r="D516" s="2">
+        <v>44406</v>
+      </c>
+      <c r="E516">
+        <v>127590</v>
+      </c>
+      <c r="F516">
+        <v>17374182</v>
+      </c>
+      <c r="G516">
+        <v>63.52</v>
+      </c>
+      <c r="H516">
+        <v>0.466</v>
+      </c>
+      <c r="I516">
+        <v>163761</v>
+      </c>
+      <c r="J516">
+        <v>0.599</v>
+      </c>
+      <c r="K516">
+        <v>65959164</v>
+      </c>
+      <c r="L516">
+        <v>46289942</v>
+      </c>
+      <c r="M516">
+        <v>19669222</v>
+      </c>
+      <c r="N516">
+        <v>1121090</v>
+      </c>
+      <c r="O516">
+        <v>782129</v>
+      </c>
+      <c r="P516">
+        <v>24.11</v>
+      </c>
+      <c r="Q516">
+        <v>16.92</v>
+      </c>
+      <c r="R516">
+        <v>7.19</v>
+      </c>
+      <c r="S516">
+        <v>2859</v>
+      </c>
+      <c r="T516">
+        <v>68.98</v>
+      </c>
+      <c r="U516">
+        <v>273523621</v>
+      </c>
+      <c r="V516">
+        <v>145.725</v>
+      </c>
+      <c r="W516">
+        <v>29.3</v>
+      </c>
+      <c r="X516">
+        <v>5.319</v>
+      </c>
+      <c r="Y516">
+        <v>3.053</v>
+      </c>
+      <c r="Z516">
+        <v>11188.744</v>
+      </c>
+      <c r="AA516">
+        <v>5.7</v>
+      </c>
+      <c r="AB516">
+        <v>342.864</v>
+      </c>
+      <c r="AC516">
+        <v>6.32</v>
+      </c>
+      <c r="AD516">
+        <v>2.8</v>
+      </c>
+      <c r="AE516">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF516">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG516">
+        <v>1.04</v>
+      </c>
+      <c r="AH516">
+        <v>71.72</v>
+      </c>
+      <c r="AI516">
+        <v>0.718</v>
+      </c>
+      <c r="AJ516">
+        <v>0</v>
+      </c>
+      <c r="AK516">
+        <v>43479</v>
+      </c>
+      <c r="AL516">
+        <v>1893</v>
+      </c>
+      <c r="AM516">
+        <v>45494</v>
+      </c>
+      <c r="AN516">
+        <v>-3908</v>
+      </c>
+      <c r="AO516">
+        <v>3331206</v>
+      </c>
+      <c r="AP516">
+        <v>90552</v>
+      </c>
+      <c r="AQ516">
+        <v>2686170</v>
+      </c>
+      <c r="AR516">
+        <v>554484</v>
+      </c>
+      <c r="AS516">
+        <v>0.04353825984958256</v>
+      </c>
+      <c r="AT516">
+        <v>0.3407712203150717</v>
+      </c>
+    </row>
+    <row r="517" spans="1:46">
+      <c r="A517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B517" t="s">
+        <v>47</v>
+      </c>
+      <c r="C517" t="s">
+        <v>48</v>
+      </c>
+      <c r="D517" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E517">
+        <v>127590</v>
+      </c>
+      <c r="F517">
+        <v>17374182</v>
+      </c>
+      <c r="G517">
+        <v>63.52</v>
+      </c>
+      <c r="H517">
+        <v>0.466</v>
+      </c>
+      <c r="I517">
+        <v>163761</v>
+      </c>
+      <c r="J517">
+        <v>0.599</v>
+      </c>
+      <c r="K517">
+        <v>66952414</v>
+      </c>
+      <c r="L517">
+        <v>46805993</v>
+      </c>
+      <c r="M517">
+        <v>20146421</v>
+      </c>
+      <c r="N517">
+        <v>993250</v>
+      </c>
+      <c r="O517">
+        <v>823774</v>
+      </c>
+      <c r="P517">
+        <v>24.48</v>
+      </c>
+      <c r="Q517">
+        <v>17.11</v>
+      </c>
+      <c r="R517">
+        <v>7.37</v>
+      </c>
+      <c r="S517">
+        <v>3012</v>
+      </c>
+      <c r="T517">
+        <v>68.98</v>
+      </c>
+      <c r="U517">
+        <v>273523621</v>
+      </c>
+      <c r="V517">
+        <v>145.725</v>
+      </c>
+      <c r="W517">
+        <v>29.3</v>
+      </c>
+      <c r="X517">
+        <v>5.319</v>
+      </c>
+      <c r="Y517">
+        <v>3.053</v>
+      </c>
+      <c r="Z517">
+        <v>11188.744</v>
+      </c>
+      <c r="AA517">
+        <v>5.7</v>
+      </c>
+      <c r="AB517">
+        <v>342.864</v>
+      </c>
+      <c r="AC517">
+        <v>6.32</v>
+      </c>
+      <c r="AD517">
+        <v>2.8</v>
+      </c>
+      <c r="AE517">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AF517">
+        <v>64.20399999999999</v>
+      </c>
+      <c r="AG517">
+        <v>1.04</v>
+      </c>
+      <c r="AH517">
+        <v>71.72</v>
+      </c>
+      <c r="AI517">
+        <v>0.718</v>
+      </c>
+      <c r="AJ517">
+        <v>0</v>
+      </c>
+      <c r="AK517">
+        <v>41168</v>
+      </c>
+      <c r="AL517">
+        <v>1759</v>
+      </c>
+      <c r="AM517">
+        <v>44550</v>
+      </c>
+      <c r="AN517">
+        <v>-5141</v>
+      </c>
+      <c r="AO517">
+        <v>3372374</v>
+      </c>
+      <c r="AP517">
+        <v>92311</v>
+      </c>
+      <c r="AQ517">
+        <v>2730720</v>
+      </c>
+      <c r="AR517">
+        <v>549343</v>
+      </c>
+      <c r="AS517">
+        <v>0.04272736105713176</v>
+      </c>
+      <c r="AT517">
+        <v>0.3226585155576456</v>
       </c>
     </row>
   </sheetData>
